--- a/results/robust_recourse_iterative/zero_SOS2.xlsx
+++ b/results/robust_recourse_iterative/zero_SOS2.xlsx
@@ -38,7 +38,7 @@
     <definedName name="_200iter_40scen_zero_sos2" localSheetId="7">'40scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_50scen_zero_sos2" localSheetId="8">'50scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_5scen_zero_sos2" localSheetId="1">'5scen'!$A$1:$K$201</definedName>
-    <definedName name="_200iter_eevscen_zero_sos2" localSheetId="0">EEV!$A$1:$K$201</definedName>
+    <definedName name="_200iter_eevscen_zero_sos2_1" localSheetId="0">EEV!$A$1:$K$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -239,7 +239,7 @@
     </textPr>
   </connection>
   <connection id="12" name="200iter_eevscen_zero_sos2" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_eevscen_zero_sos2.csv" thousands=" " comma="1" semicolon="1">
+    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_eevscen_zero_sos2.csv" thousands=" " semicolon="1">
       <textFields count="11">
         <textField/>
         <textField/>
@@ -452,41 +452,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$3:$A$13</c:f>
+              <c:f>Results!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -494,41 +497,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$B$3:$B$13</c:f>
+              <c:f>Results!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -812,41 +818,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$3:$A$13</c:f>
+              <c:f>Results!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -854,41 +863,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$C$3:$C$13</c:f>
+              <c:f>Results!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>109.20354038562397</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>112.78804965807207</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>117.15078233754488</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>117.63506396257284</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>119.35093760876916</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>118.51253023302459</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>116.68525913860371</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>115.87529231821765</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>115.87648862685775</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>112.61797262974525</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>112.65443546698727</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>112.66118740144987</c:v>
                 </c:pt>
               </c:numCache>
@@ -1172,41 +1184,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$3:$A$13</c:f>
+              <c:f>Results!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1214,41 +1229,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$E$3:$E$13</c:f>
+              <c:f>Results!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>14.128589339950022</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10.54440147455335</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>8.960405763958347</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8.5861519042610315</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.5215643120620737</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.9122090784683188</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.5987360451662074</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.2442237363730353</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4.244823406583035</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.1825117541272339</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.1603724756513438</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3.1549233623442201</c:v>
                 </c:pt>
               </c:numCache>
@@ -3205,7 +3223,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_eevscen_zero_sos2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_eevscen_zero_sos2_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3564,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>123.25454596273801</v>
+        <v>124.651054248374</v>
       </c>
       <c r="D2">
-        <v>243269.81801956301</v>
+        <v>247294.631434348</v>
       </c>
       <c r="E2">
         <v>72.984095043383107</v>
@@ -3579,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.7925311833176</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H2">
-        <v>22.213040543292401</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>53.227459287145102</v>
+        <v>53.235891229978598</v>
       </c>
       <c r="J2">
         <v>62.606092987060499</v>
       </c>
       <c r="K2">
-        <v>53.429127550195901</v>
+        <v>47.839841841223802</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3599,13 +3617,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>105.57039630340699</v>
+        <v>89.047822746753695</v>
       </c>
       <c r="D3">
-        <v>193848.24095418601</v>
+        <v>149933.48999008199</v>
       </c>
       <c r="E3">
         <v>72.984095043383107</v>
@@ -3614,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>56.1788209390714</v>
+        <v>62.556307627789302</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J3">
-        <v>55.934210347903203</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3637,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>104.577478588452</v>
+        <v>114.173669037995</v>
       </c>
       <c r="D4">
-        <v>198214.03761487099</v>
+        <v>200503.36867629699</v>
       </c>
       <c r="E4">
         <v>72.984095043383107</v>
@@ -3649,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.205642694335999</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H4">
-        <v>25.633532097904599</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J4">
         <v>58.422620827064797</v>
@@ -3669,13 +3687,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>123.693740696782</v>
+        <v>105.79582243309299</v>
       </c>
       <c r="D5">
-        <v>244778.04445664299</v>
+        <v>185382.46160201999</v>
       </c>
       <c r="E5">
         <v>72.984095043383107</v>
@@ -3684,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.7513865649561</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H5">
-        <v>23.2185667275843</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>53.227459287145102</v>
+        <v>51.377283884416698</v>
       </c>
       <c r="J5">
         <v>62.606092987060499</v>
       </c>
       <c r="K5">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3707,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>127.811478987434</v>
+        <v>135.46605101953</v>
       </c>
       <c r="D6">
-        <v>233696.92502289699</v>
+        <v>243717.86597543699</v>
       </c>
       <c r="E6">
         <v>72.984095043383107</v>
@@ -3719,19 +3737,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J6">
         <v>62.606092987060499</v>
       </c>
       <c r="K6">
-        <v>53.429127550195901</v>
+        <v>53.513234027617898</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3739,13 +3757,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>92.488515250780907</v>
+        <v>77.935458476311098</v>
       </c>
       <c r="D7">
-        <v>186138.874890765</v>
+        <v>150176.70149437801</v>
       </c>
       <c r="E7">
         <v>72.984095043383107</v>
@@ -3754,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.1788209390714</v>
+        <v>59.922408500631498</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>52.488847327808998</v>
@@ -3774,13 +3792,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>123.817406203438</v>
+        <v>105.628308955081</v>
       </c>
       <c r="D8">
-        <v>240700.97765695499</v>
+        <v>200900.54785839599</v>
       </c>
       <c r="E8">
         <v>72.984095043383107</v>
@@ -3789,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>39.200394100859903</v>
+        <v>63.133405454443903</v>
       </c>
       <c r="H8">
-        <v>22.823821602594901</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>53.227459287145102</v>
+        <v>54.1905440073919</v>
       </c>
       <c r="J8">
         <v>62.606092987060499</v>
       </c>
       <c r="K8">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3812,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>112.854287904587</v>
+        <v>119.384998630372</v>
       </c>
       <c r="D9">
-        <v>220992.421772801</v>
+        <v>235550.18845292501</v>
       </c>
       <c r="E9">
         <v>72.984095043383107</v>
@@ -3824,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>38.896715603173902</v>
       </c>
       <c r="J9">
         <v>62.606092987060499</v>
       </c>
       <c r="K9">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3844,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>105.64162612052</v>
+        <v>107.13506893568</v>
       </c>
       <c r="D10">
-        <v>196924.48491417599</v>
+        <v>195186.213901674</v>
       </c>
       <c r="E10">
         <v>72.984095043383107</v>
@@ -3859,13 +3877,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.301456220687399</v>
+        <v>64.6552391811002</v>
       </c>
       <c r="H10">
-        <v>27.250803365378999</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>53.227459287145102</v>
+        <v>55.209524684988899</v>
       </c>
       <c r="J10">
         <v>62.606092987060499</v>
@@ -3882,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>109.16359600604601</v>
+        <v>115.60177624553999</v>
       </c>
       <c r="D11">
-        <v>194421.323340565</v>
+        <v>193437.857744938</v>
       </c>
       <c r="E11">
         <v>72.984095043383107</v>
@@ -3894,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H11">
-        <v>22.651803484557199</v>
+        <v>20.098031807162901</v>
       </c>
       <c r="I11">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J11">
         <v>61.9397187559156</v>
@@ -3917,10 +3935,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>107.33966111791401</v>
+        <v>109.029219315034</v>
       </c>
       <c r="D12">
-        <v>191528.13731703599</v>
+        <v>197112.871247476</v>
       </c>
       <c r="E12">
         <v>72.984095043383107</v>
@@ -3932,10 +3950,10 @@
         <v>54.199149280103697</v>
       </c>
       <c r="H12">
-        <v>20.4719350498838</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J12">
         <v>62.606092987060499</v>
@@ -3949,13 +3967,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>128.334693266155</v>
+        <v>115.102866515747</v>
       </c>
       <c r="D13">
-        <v>243592.07651250501</v>
+        <v>201281.125158726</v>
       </c>
       <c r="E13">
         <v>72.984095043383107</v>
@@ -3964,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.1788209390714</v>
+        <v>64.590241130386204</v>
       </c>
       <c r="H13">
-        <v>21.125748397725499</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J13">
         <v>62.606092987060499</v>
       </c>
       <c r="K13">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3984,13 +4002,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>79.2780707453324</v>
+        <v>84.770960067350899</v>
       </c>
       <c r="D14">
-        <v>145026.13534631801</v>
+        <v>151622.74902507101</v>
       </c>
       <c r="E14">
         <v>72.984095043383107</v>
@@ -4002,10 +4020,10 @@
         <v>55.118868400408601</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>60</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4019,13 +4037,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>123.176859087105</v>
+        <v>107.82504936743599</v>
       </c>
       <c r="D15">
-        <v>248818.29185849999</v>
+        <v>197532.44095842799</v>
       </c>
       <c r="E15">
         <v>72.984095043383107</v>
@@ -4034,19 +4052,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.522366621029498</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H15">
-        <v>24.762933427500801</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>53.227459287145102</v>
+        <v>55.2403250434648</v>
       </c>
       <c r="J15">
-        <v>62.606092987058901</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K15">
-        <v>50.353051711682497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4057,10 +4075,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>105.387056473916</v>
+        <v>111.720436185276</v>
       </c>
       <c r="D16">
-        <v>195700.59362507501</v>
+        <v>206844.11174052799</v>
       </c>
       <c r="E16">
         <v>72.984095043383107</v>
@@ -4069,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.403688749317404</v>
+        <v>59.1655968127249</v>
       </c>
       <c r="H16">
-        <v>26.552610975247099</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J16">
         <v>62.606092987060499</v>
@@ -4089,13 +4107,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>104.667248702531</v>
+        <v>86.957732823589595</v>
       </c>
       <c r="D17">
-        <v>192136.32258387201</v>
+        <v>144748.47859902799</v>
       </c>
       <c r="E17">
         <v>72.984095043383107</v>
@@ -4110,13 +4128,13 @@
         <v>20</v>
       </c>
       <c r="I17">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J17">
         <v>62.606092987060499</v>
       </c>
       <c r="K17">
-        <v>53.429127550195801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,13 +4142,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>103.81926000982099</v>
+        <v>99.530447806709503</v>
       </c>
       <c r="D18">
-        <v>194371.33012989501</v>
+        <v>195374.99684460001</v>
       </c>
       <c r="E18">
         <v>72.984095043383107</v>
@@ -4139,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38.244191761307903</v>
+        <v>55.915676978496101</v>
       </c>
       <c r="H18">
-        <v>23.414077107050598</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>53.227459287145102</v>
+        <v>50.603268308988298</v>
       </c>
       <c r="J18">
         <v>62.606092987060499</v>
@@ -4162,10 +4180,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>106.839596998432</v>
+        <v>114.242758412241</v>
       </c>
       <c r="D19">
-        <v>182637.53655445701</v>
+        <v>201376.237410851</v>
       </c>
       <c r="E19">
         <v>72.984095043383107</v>
@@ -4174,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.6954385071394</v>
+        <v>63.2428961983845</v>
       </c>
       <c r="H19">
-        <v>27.117352940533198</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J19">
         <v>62.606092987060499</v>
@@ -4197,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>106.307262067697</v>
+        <v>112.974028249621</v>
       </c>
       <c r="D20">
-        <v>189248.119385047</v>
+        <v>206238.51996465601</v>
       </c>
       <c r="E20">
         <v>72.984095043383107</v>
@@ -4209,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>39.3998316080827</v>
+        <v>61.255451657731903</v>
       </c>
       <c r="H20">
-        <v>27.066459446231999</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J20">
         <v>62.606092987060499</v>
@@ -4229,13 +4247,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>124.060287761016</v>
+        <v>107.789877465421</v>
       </c>
       <c r="D21">
-        <v>248801.966338225</v>
+        <v>187007.76534169199</v>
       </c>
       <c r="E21">
         <v>72.984095043383107</v>
@@ -4244,19 +4262,19 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.928852080230698</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H21">
-        <v>24.087523254033499</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>53.227459287145102</v>
+        <v>55.173368261633797</v>
       </c>
       <c r="J21">
         <v>62.606092987060499</v>
       </c>
       <c r="K21">
-        <v>52.976253656692101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4267,10 +4285,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>113.18460816683</v>
+        <v>125.247340443816</v>
       </c>
       <c r="D22">
-        <v>244600.752337182</v>
+        <v>248887.40083951401</v>
       </c>
       <c r="E22">
         <v>72.984095043383107</v>
@@ -4279,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>49.441093721939502</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>51.282884364088801</v>
@@ -4291,7 +4309,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>53.0943838095979</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -4302,10 +4320,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>117.520398784497</v>
+        <v>126.830542393542</v>
       </c>
       <c r="D23">
-        <v>224428.47615143299</v>
+        <v>243728.056570113</v>
       </c>
       <c r="E23">
         <v>72.984095043383107</v>
@@ -4314,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H23">
-        <v>39.999999999999098</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>53.012835686695901</v>
@@ -4326,7 +4344,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>103.86446518876799</v>
+        <v>111.48956233518901</v>
       </c>
       <c r="D24">
-        <v>187435.07579108901</v>
+        <v>193268.558122218</v>
       </c>
       <c r="E24">
         <v>72.984095043383107</v>
@@ -4349,16 +4367,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
       <c r="I24">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J24">
-        <v>51.594440562452803</v>
+        <v>51.594440562454203</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -4372,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D25">
-        <v>192439.89839924101</v>
+        <v>201437.25284085399</v>
       </c>
       <c r="E25">
         <v>72.984095043383107</v>
@@ -4384,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H25">
         <v>20</v>
       </c>
       <c r="I25">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J25">
         <v>62.606092987060499</v>
@@ -4404,13 +4422,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>128.35605418470399</v>
+        <v>112.188994207753</v>
       </c>
       <c r="D26">
-        <v>241424.00459034101</v>
+        <v>200591.52554705201</v>
       </c>
       <c r="E26">
         <v>72.984095043383107</v>
@@ -4419,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>56.1788209390714</v>
+        <v>60.025708985330901</v>
       </c>
       <c r="H26">
-        <v>21.1717085727607</v>
+        <v>19.999999999999901</v>
       </c>
       <c r="I26">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J26">
         <v>62.606092987060499</v>
       </c>
       <c r="K26">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4439,13 +4457,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>123.332422846084</v>
+        <v>105.77022740296201</v>
       </c>
       <c r="D27">
-        <v>234533.19825784001</v>
+        <v>196221.71863014399</v>
       </c>
       <c r="E27">
         <v>72.984095043383107</v>
@@ -4454,19 +4472,19 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>38.110800608064501</v>
+        <v>62.931970755890497</v>
       </c>
       <c r="H27">
-        <v>23.383933128809701</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>53.227459287145102</v>
+        <v>54.705511936779502</v>
       </c>
       <c r="J27">
         <v>62.606092987060499</v>
       </c>
       <c r="K27">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,10 +4495,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>95.272849237990101</v>
+        <v>102.042913353218</v>
       </c>
       <c r="D28">
-        <v>184514.838545059</v>
+        <v>193098.71450108101</v>
       </c>
       <c r="E28">
         <v>72.984095043383107</v>
@@ -4489,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>44.500491626369197</v>
+        <v>46.492258014346199</v>
       </c>
       <c r="J28">
         <v>59.620929664385699</v>
@@ -4512,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>124.433442578872</v>
+        <v>134.13430439008599</v>
       </c>
       <c r="D29">
-        <v>233705.33225464399</v>
+        <v>246212.147748166</v>
       </c>
       <c r="E29">
         <v>72.984095043383107</v>
@@ -4524,19 +4542,19 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>38.7535211336806</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H29">
-        <v>24.806968544791701</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J29">
         <v>62.606092987060499</v>
       </c>
       <c r="K29">
-        <v>53.429127550195901</v>
+        <v>49.596127748188003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4544,13 +4562,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>117.44559383442601</v>
+        <v>104.879803679026</v>
       </c>
       <c r="D30">
-        <v>236221.899492809</v>
+        <v>196712.49348108401</v>
       </c>
       <c r="E30">
         <v>72.984095043383107</v>
@@ -4559,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>56.1788209390714</v>
+        <v>63.047156672575802</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>52.870429435262402</v>
@@ -4582,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>108.193063576108</v>
+        <v>111.15357378263199</v>
       </c>
       <c r="D31">
-        <v>193582.52843488401</v>
+        <v>202507.16950108999</v>
       </c>
       <c r="E31">
         <v>72.984095043383107</v>
@@ -4594,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>56.1788209390714</v>
+        <v>58.119492943475898</v>
       </c>
       <c r="H31">
         <v>20</v>
       </c>
       <c r="I31">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J31">
         <v>62.606092987060499</v>
@@ -4614,13 +4632,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>124.89013107696501</v>
+        <v>126.94240085699801</v>
       </c>
       <c r="D32">
-        <v>239606.29133977799</v>
+        <v>237736.964649973</v>
       </c>
       <c r="E32">
         <v>72.984095043383107</v>
@@ -4629,19 +4647,19 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>38.940169590455703</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H32">
-        <v>25.5148813334234</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>53.227459287145102</v>
+        <v>53.225780745233401</v>
       </c>
       <c r="J32">
         <v>62.606092987060499</v>
       </c>
       <c r="K32">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4652,10 +4670,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>92.9374591538011</v>
+        <v>97.520157652863105</v>
       </c>
       <c r="D33">
-        <v>179654.14120394501</v>
+        <v>199531.30314381499</v>
       </c>
       <c r="E33">
         <v>72.984095043383107</v>
@@ -4664,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>52.790632952508403</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>50.2739633976243</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>62.606092987060499</v>
@@ -4687,10 +4705,10 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>93.950012409452398</v>
+        <v>94.397632803811106</v>
       </c>
       <c r="D34">
-        <v>199055.05275721001</v>
+        <v>194477.95175564699</v>
       </c>
       <c r="E34">
         <v>72.984095043383107</v>
@@ -4699,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>49.517515734071097</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4708,10 +4726,10 @@
         <v>46.239239934200498</v>
       </c>
       <c r="J34">
-        <v>62.606092987031303</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4722,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>129.51938753749201</v>
+        <v>135.993737424323</v>
       </c>
       <c r="D35">
-        <v>232116.063065683</v>
+        <v>237465.435886494</v>
       </c>
       <c r="E35">
         <v>72.984095043383107</v>
@@ -4734,19 +4752,19 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H35">
-        <v>23.6747378500243</v>
+        <v>20</v>
       </c>
       <c r="I35">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J35">
         <v>62.606092987060499</v>
       </c>
       <c r="K35">
-        <v>53.429127550195901</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4757,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D36">
-        <v>192180.534265619</v>
+        <v>194472.31884091499</v>
       </c>
       <c r="E36">
         <v>72.984095043383107</v>
@@ -4769,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H36">
         <v>20</v>
       </c>
       <c r="I36">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J36">
         <v>62.606092987060499</v>
@@ -4792,10 +4810,10 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>73.618458245108002</v>
+        <v>74.472224603159106</v>
       </c>
       <c r="D37">
-        <v>141578.032848854</v>
+        <v>144632.99860852701</v>
       </c>
       <c r="E37">
         <v>72.984095043383107</v>
@@ -4810,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>45.098463638641199</v>
+        <v>46.7120485976737</v>
       </c>
       <c r="J37">
         <v>62.606092987060499</v>
@@ -4824,13 +4842,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>106.321344072561</v>
+        <v>89.713912178893807</v>
       </c>
       <c r="D38">
-        <v>199573.762787874</v>
+        <v>154423.71487087099</v>
       </c>
       <c r="E38">
         <v>72.984095043383107</v>
@@ -4839,16 +4857,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>56.1788209390714</v>
+        <v>63.599725562111097</v>
       </c>
       <c r="H38">
         <v>20</v>
       </c>
       <c r="I38">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J38">
-        <v>57.844569102170702</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4859,13 +4877,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>124.656923719042</v>
+        <v>104.689919849289</v>
       </c>
       <c r="D39">
-        <v>233445.26609622699</v>
+        <v>200167.77707738499</v>
       </c>
       <c r="E39">
         <v>72.984095043383107</v>
@@ -4874,19 +4892,19 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>39.140034992813497</v>
+        <v>59.613804264296299</v>
       </c>
       <c r="H39">
-        <v>24.718961510741799</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>53.227459287145102</v>
+        <v>56.610457652144198</v>
       </c>
       <c r="J39">
         <v>62.606092987060499</v>
       </c>
       <c r="K39">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4897,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>105.888529643</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D40">
-        <v>193171.60307343499</v>
+        <v>197511.02119351999</v>
       </c>
       <c r="E40">
         <v>72.984095043383107</v>
@@ -4909,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>39.783136405375799</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H40">
-        <v>25.601387940188701</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J40">
         <v>62.606092987060499</v>
@@ -4929,13 +4947,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>125.139814734239</v>
+        <v>126.193656876074</v>
       </c>
       <c r="D41">
-        <v>244526.639674048</v>
+        <v>239992.024598063</v>
       </c>
       <c r="E41">
         <v>72.984095043383107</v>
@@ -4944,19 +4962,19 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>40.803524975790197</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H41">
-        <v>24.248294630633701</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>53.227459287145102</v>
+        <v>51.800396148298297</v>
       </c>
       <c r="J41">
         <v>62.606092987060499</v>
       </c>
       <c r="K41">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4964,13 +4982,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>104.25034997337499</v>
+        <v>101.742860186394</v>
       </c>
       <c r="D42">
-        <v>194491.73622428099</v>
+        <v>203521.11073381</v>
       </c>
       <c r="E42">
         <v>72.984095043383107</v>
@@ -4979,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>39.5762425480223</v>
+        <v>56.556985026506901</v>
       </c>
       <c r="H42">
-        <v>22.3811735306207</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>53.227459287145102</v>
+        <v>54.153481269470603</v>
       </c>
       <c r="J42">
         <v>62.606092987060499</v>
@@ -5002,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>117.226714230184</v>
+        <v>125.247922102305</v>
       </c>
       <c r="D43">
-        <v>221322.67143374201</v>
+        <v>239162.798104102</v>
       </c>
       <c r="E43">
         <v>72.984095043383107</v>
@@ -5014,19 +5032,19 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H43">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>52.453748133751603</v>
+        <v>49.999999999999901</v>
       </c>
       <c r="J43">
         <v>62.606092987060499</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5034,13 +5052,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>104.185908789373</v>
+        <v>105.671691820794</v>
       </c>
       <c r="D44">
-        <v>192261.78418222201</v>
+        <v>195425.43482072101</v>
       </c>
       <c r="E44">
         <v>72.984095043383107</v>
@@ -5049,13 +5067,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>36.9830437169378</v>
+        <v>63.639307341861297</v>
       </c>
       <c r="H44">
-        <v>26.059045554127898</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>53.227459287145102</v>
+        <v>53.658324357671802</v>
       </c>
       <c r="J44">
         <v>62.606092987060499</v>
@@ -5069,13 +5087,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>124.182868406583</v>
+        <v>104.88142523705299</v>
       </c>
       <c r="D45">
-        <v>238061.40311842601</v>
+        <v>196372.35223774301</v>
       </c>
       <c r="E45">
         <v>72.984095043383107</v>
@@ -5084,19 +5102,19 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>38.6763372175661</v>
+        <v>62.181248220325699</v>
       </c>
       <c r="H45">
-        <v>24.3814278229781</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>53.227459287145102</v>
+        <v>53.9258294131848</v>
       </c>
       <c r="J45">
         <v>62.606092987060499</v>
       </c>
       <c r="K45">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5107,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>116.34673286927401</v>
+        <v>124.537591183155</v>
       </c>
       <c r="D46">
-        <v>238292.039199272</v>
+        <v>249925.590657614</v>
       </c>
       <c r="E46">
         <v>72.984095043383107</v>
@@ -5119,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H46">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>50.778526817270297</v>
@@ -5131,7 +5149,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>51.825108778771003</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -5139,13 +5157,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>124.93299304854401</v>
+        <v>126.110433929634</v>
       </c>
       <c r="D47">
-        <v>229718.48192364699</v>
+        <v>238066.86150328099</v>
       </c>
       <c r="E47">
         <v>72.984095043383107</v>
@@ -5154,19 +5172,19 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>39.905335241683098</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H47">
-        <v>24.186626841646</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>53.227459287145102</v>
+        <v>51.641964549529</v>
       </c>
       <c r="J47">
         <v>62.606092987060499</v>
       </c>
       <c r="K47">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -5174,13 +5192,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>118.04581013958</v>
+        <v>99.096388626838902</v>
       </c>
       <c r="D48">
-        <v>246044.91530260901</v>
+        <v>197137.969438486</v>
       </c>
       <c r="E48">
         <v>72.984095043383107</v>
@@ -5189,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>56.1788209390714</v>
+        <v>56.480991879292098</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5201,7 +5219,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K48">
-        <v>51.9873882283905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5209,13 +5227,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>102.073068047333</v>
+        <v>85.272060569450105</v>
       </c>
       <c r="D49">
-        <v>194415.32759185601</v>
+        <v>149372.14863440601</v>
       </c>
       <c r="E49">
         <v>72.984095043383107</v>
@@ -5224,16 +5242,16 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>39.107582014576401</v>
+        <v>56.043613403222999</v>
       </c>
       <c r="H49">
-        <v>25.973218942207399</v>
+        <v>20</v>
       </c>
       <c r="I49">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J49">
-        <v>53.635728999405401</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5244,13 +5262,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>104.80636914563</v>
+        <v>106.09065775696899</v>
       </c>
       <c r="D50">
-        <v>189422.748014165</v>
+        <v>191456.76390028399</v>
       </c>
       <c r="E50">
         <v>72.984095043383107</v>
@@ -5259,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>38.618375870417204</v>
+        <v>65.146826005547695</v>
       </c>
       <c r="H50">
-        <v>24.987239109851501</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>53.227459287145102</v>
+        <v>52.623867198365197</v>
       </c>
       <c r="J50">
         <v>62.606092987060499</v>
@@ -5279,13 +5297,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>104.509003677603</v>
+        <v>76.612325272512805</v>
       </c>
       <c r="D51">
-        <v>199241.585094863</v>
+        <v>144758.387500482</v>
       </c>
       <c r="E51">
         <v>72.984095043383107</v>
@@ -5294,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>39.416820157558199</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>24.143324075407399</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>53.227459287145102</v>
+        <v>51.621383161482299</v>
       </c>
       <c r="J51">
-        <v>61.458035562520301</v>
+        <v>61.458035562520202</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5317,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>116.285234715953</v>
+        <v>123.53300449381</v>
       </c>
       <c r="D52">
-        <v>240068.12258648599</v>
+        <v>248115.045224662</v>
       </c>
       <c r="E52">
         <v>72.984095043383107</v>
@@ -5329,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>44.9172745596223</v>
+        <v>46.758872924714403</v>
       </c>
       <c r="J52">
         <v>62.606092987060499</v>
       </c>
       <c r="K52">
-        <v>53.429127550193797</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -5349,13 +5367,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>92.5675252276273</v>
+        <v>80.0034975594033</v>
       </c>
       <c r="D53">
-        <v>193202.52556628801</v>
+        <v>149984.71276367101</v>
       </c>
       <c r="E53">
         <v>72.984095043383107</v>
@@ -5364,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>56.1788209390714</v>
+        <v>63.049917579204397</v>
       </c>
       <c r="H53">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>52.639258692535002</v>
@@ -5387,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>109.173660353553</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D54">
-        <v>189453.19044724799</v>
+        <v>198150.306770881</v>
       </c>
       <c r="E54">
         <v>72.984095043383107</v>
@@ -5399,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H54">
-        <v>22.109853067700399</v>
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J54">
         <v>62.606092987060499</v>
@@ -5419,13 +5437,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>107.772380538671</v>
+        <v>86.577989650049005</v>
       </c>
       <c r="D55">
-        <v>194573.90349849901</v>
+        <v>145829.98342724601</v>
       </c>
       <c r="E55">
         <v>72.984095043383107</v>
@@ -5434,16 +5452,16 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>56.1788209390714</v>
+        <v>58.453611769328802</v>
       </c>
       <c r="H55">
-        <v>21.590677264781402</v>
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J55">
-        <v>59.655178691714497</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5457,10 +5475,10 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>91.350861451537099</v>
+        <v>92.279880250966102</v>
       </c>
       <c r="D56">
-        <v>194478.78577278199</v>
+        <v>197533.75153246001</v>
       </c>
       <c r="E56">
         <v>72.984095043383107</v>
@@ -5475,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>39.536767879674898</v>
+        <v>41.302061280593499</v>
       </c>
       <c r="J56">
-        <v>62.606092987031303</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5492,10 +5510,10 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>92.290118653147601</v>
+        <v>93.653848895804003</v>
       </c>
       <c r="D57">
-        <v>181951.62077818901</v>
+        <v>192059.86639306601</v>
       </c>
       <c r="E57">
         <v>72.984095043383107</v>
@@ -5507,16 +5525,16 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>49.048537869219302</v>
+        <v>44.8335174957219</v>
       </c>
       <c r="J57">
         <v>62.606092987060499</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5524,13 +5542,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>127.811478987434</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D58">
-        <v>244937.22864330999</v>
+        <v>197449.53358818</v>
       </c>
       <c r="E58">
         <v>72.984095043383107</v>
@@ -5539,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H58">
         <v>20</v>
       </c>
       <c r="I58">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J58">
         <v>62.606092987060499</v>
       </c>
       <c r="K58">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -5559,13 +5577,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>127.811478987434</v>
+        <v>127.62995612986801</v>
       </c>
       <c r="D59">
-        <v>238542.23171287801</v>
+        <v>238682.78177923599</v>
       </c>
       <c r="E59">
         <v>72.984095043383107</v>
@@ -5574,19 +5592,19 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>53.227459287145102</v>
+        <v>54.534680343038602</v>
       </c>
       <c r="J59">
         <v>62.606092987060499</v>
       </c>
       <c r="K59">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -5594,13 +5612,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>114.422052599547</v>
+        <v>103.556619506796</v>
       </c>
       <c r="D60">
-        <v>221489.01992927099</v>
+        <v>199690.70950557</v>
       </c>
       <c r="E60">
         <v>72.984095043383107</v>
@@ -5609,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>47.135337459659397</v>
@@ -5629,13 +5647,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>105.15878814021301</v>
+        <v>106.68641463316099</v>
       </c>
       <c r="D61">
-        <v>188433.159304409</v>
+        <v>184973.12607023501</v>
       </c>
       <c r="E61">
         <v>72.984095043383107</v>
@@ -5644,13 +5662,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>38.880297355091002</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H61">
-        <v>25.3600229280914</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>53.227459287145102</v>
+        <v>53.072705065046598</v>
       </c>
       <c r="J61">
         <v>62.606092987060499</v>
@@ -5664,13 +5682,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>127.811478987434</v>
+        <v>111.82895134495401</v>
       </c>
       <c r="D62">
-        <v>245188.71859164</v>
+        <v>201619.761776083</v>
       </c>
       <c r="E62">
         <v>72.984095043383107</v>
@@ -5679,19 +5697,19 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>56.1788209390714</v>
+        <v>59.365853749650398</v>
       </c>
       <c r="H62">
         <v>20</v>
       </c>
       <c r="I62">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J62">
         <v>62.606092987060499</v>
       </c>
       <c r="K62">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5702,10 +5720,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>106.54361583218601</v>
+        <v>108.45251536457</v>
       </c>
       <c r="D63">
-        <v>195606.80459975099</v>
+        <v>198860.861845915</v>
       </c>
       <c r="E63">
         <v>72.984095043383107</v>
@@ -5720,7 +5738,7 @@
         <v>20</v>
       </c>
       <c r="I63">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J63">
         <v>62.606092987060499</v>
@@ -5734,13 +5752,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>125.912380260063</v>
+        <v>114.694638291679</v>
       </c>
       <c r="D64">
-        <v>239891.59685765501</v>
+        <v>201052.13744780401</v>
       </c>
       <c r="E64">
         <v>72.984095043383107</v>
@@ -5749,19 +5767,19 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>40.992477441740498</v>
+        <v>63.950758457736001</v>
       </c>
       <c r="H64">
-        <v>25.853167937874201</v>
+        <v>20</v>
       </c>
       <c r="I64">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J64">
         <v>62.606092987060499</v>
       </c>
       <c r="K64">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5772,10 +5790,10 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>107.40814235063699</v>
+        <v>115.033239497057</v>
       </c>
       <c r="D65">
-        <v>193240.96299689601</v>
+        <v>203834.19315496</v>
       </c>
       <c r="E65">
         <v>72.984095043383107</v>
@@ -5784,16 +5802,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H65">
         <v>20</v>
       </c>
       <c r="I65">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J65">
-        <v>60.609308129203399</v>
+        <v>60.609308129203498</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5804,13 +5822,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>104.11889933955899</v>
+        <v>82.190363434648802</v>
       </c>
       <c r="D66">
-        <v>184346.11516002199</v>
+        <v>149075.04034030801</v>
       </c>
       <c r="E66">
         <v>72.984095043383107</v>
@@ -5819,16 +5837,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>38.433711030869802</v>
+        <v>65.134652902140303</v>
       </c>
       <c r="H66">
-        <v>23.796668924405999</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>53.227459287145102</v>
+        <v>54.268879863317302</v>
       </c>
       <c r="J66">
-        <v>62.586216281730003</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5839,13 +5857,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>127.811478987434</v>
+        <v>113.186622781765</v>
       </c>
       <c r="D67">
-        <v>242191.56888189801</v>
+        <v>198834.44429983301</v>
       </c>
       <c r="E67">
         <v>72.984095043383107</v>
@@ -5854,19 +5872,19 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>56.1788209390714</v>
+        <v>61.588477430060401</v>
       </c>
       <c r="H67">
         <v>20</v>
       </c>
       <c r="I67">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J67">
         <v>62.606092987060499</v>
       </c>
       <c r="K67">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -5877,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>105.320341425614</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D68">
-        <v>194962.36867850801</v>
+        <v>199709.680974477</v>
       </c>
       <c r="E68">
         <v>72.984095043383107</v>
@@ -5889,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>38.474568573425401</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H68">
-        <v>26.304749880058001</v>
+        <v>20</v>
       </c>
       <c r="I68">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J68">
         <v>62.606092987060499</v>
@@ -5912,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>124.483422797673</v>
+        <v>134.07247680046001</v>
       </c>
       <c r="D69">
-        <v>243273.287703457</v>
+        <v>244984.42709704101</v>
       </c>
       <c r="E69">
         <v>72.984095043383107</v>
@@ -5924,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>38.229600343920303</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H69">
-        <v>25.685583097850799</v>
+        <v>20</v>
       </c>
       <c r="I69">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J69">
         <v>62.606092987060499</v>
       </c>
       <c r="K69">
-        <v>53.429127550195901</v>
+        <v>49.3477726924202</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5944,13 +5962,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>104.137341570488</v>
+        <v>107.46071956201</v>
       </c>
       <c r="D70">
-        <v>197493.4640453</v>
+        <v>200874.95548070499</v>
       </c>
       <c r="E70">
         <v>72.984095043383107</v>
@@ -5959,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>38.8026671512024</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H70">
-        <v>24.467293568913199</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>53.227459287145102</v>
+        <v>55.600318648608301</v>
       </c>
       <c r="J70">
         <v>61.198201128866302</v>
@@ -5979,13 +5997,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>123.136177044692</v>
+        <v>101.388514534919</v>
       </c>
       <c r="D71">
-        <v>234861.246529703</v>
+        <v>194444.57611508999</v>
       </c>
       <c r="E71">
         <v>72.984095043383107</v>
@@ -5994,19 +6012,19 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>38.680566849415399</v>
+        <v>59.929407870511</v>
       </c>
       <c r="H71">
-        <v>22.1231406436575</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>53.227459287145102</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <v>62.606092987060499</v>
       </c>
       <c r="K71">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -6014,13 +6032,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>128.38138483949899</v>
+        <v>116.06496244349999</v>
       </c>
       <c r="D72">
-        <v>233681.734810867</v>
+        <v>186017.90499745501</v>
       </c>
       <c r="E72">
         <v>72.984095043383107</v>
@@ -6029,19 +6047,19 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H72">
-        <v>21.226210036516001</v>
+        <v>20.531018844934302</v>
       </c>
       <c r="I72">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J72">
         <v>62.606092987060499</v>
       </c>
       <c r="K72">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -6052,10 +6070,10 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>127.811478987434</v>
+        <v>135.993737424323</v>
       </c>
       <c r="D73">
-        <v>230917.57640780599</v>
+        <v>239286.11643436301</v>
       </c>
       <c r="E73">
         <v>72.984095043383107</v>
@@ -6064,19 +6082,19 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H73">
         <v>20</v>
       </c>
       <c r="I73">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J73">
         <v>62.606092987060499</v>
       </c>
       <c r="K73">
-        <v>53.429127550195901</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -6087,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>124.242362644696</v>
+        <v>133.66364016923001</v>
       </c>
       <c r="D74">
-        <v>247250.56802537199</v>
+        <v>248198.421301519</v>
       </c>
       <c r="E74">
         <v>72.984095043383107</v>
@@ -6099,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>38.778217057656803</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H74">
-        <v>26.412684800912899</v>
+        <v>20</v>
       </c>
       <c r="I74">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J74">
         <v>62.606092987060499</v>
       </c>
       <c r="K74">
-        <v>50.706145809434702</v>
+        <v>47.705518078193798</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -6119,13 +6137,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>104.074295038161</v>
+        <v>105.16315214799199</v>
       </c>
       <c r="D75">
-        <v>181252.19596119699</v>
+        <v>188891.267031828</v>
       </c>
       <c r="E75">
         <v>72.984095043383107</v>
@@ -6134,13 +6152,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>37.838984158526699</v>
+        <v>64.154113137142204</v>
       </c>
       <c r="H75">
-        <v>24.559172434716999</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>53.227459287145102</v>
+        <v>52.064588613044599</v>
       </c>
       <c r="J75">
         <v>62.606092987060499</v>
@@ -6157,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>92.007362691919099</v>
+        <v>98.671204022730805</v>
       </c>
       <c r="D76">
-        <v>190923.68978825599</v>
+        <v>194376.292276375</v>
       </c>
       <c r="E76">
         <v>72.984095043383107</v>
@@ -6169,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>40.607150737772102</v>
+        <v>42.398160225896298</v>
       </c>
       <c r="J76">
         <v>56.554285057189396</v>
@@ -6192,10 +6210,10 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>99.377966509293699</v>
+        <v>105.718595178219</v>
       </c>
       <c r="D77">
-        <v>185659.32438817801</v>
+        <v>192194.718729488</v>
       </c>
       <c r="E77">
         <v>72.984095043383107</v>
@@ -6204,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>50.041536322460502</v>
+        <v>51.230266289130803</v>
       </c>
       <c r="J77">
         <v>62.606092987060499</v>
@@ -6224,13 +6242,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>124.506963086132</v>
+        <v>125.364844743246</v>
       </c>
       <c r="D78">
-        <v>235480.99799648099</v>
+        <v>233125.97517447299</v>
       </c>
       <c r="E78">
         <v>72.984095043383107</v>
@@ -6239,19 +6257,19 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>40.358193078763001</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H78">
-        <v>23.021885004316101</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>53.227459287145102</v>
+        <v>50.2225857378181</v>
       </c>
       <c r="J78">
         <v>62.606092987060499</v>
       </c>
       <c r="K78">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6262,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D79">
-        <v>193157.126998091</v>
+        <v>195007.821834409</v>
       </c>
       <c r="E79">
         <v>72.984095043383107</v>
@@ -6274,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H79">
         <v>20</v>
       </c>
       <c r="I79">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J79">
         <v>62.606092987060499</v>
@@ -6297,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>104.667248702531</v>
+        <v>107.13330952538401</v>
       </c>
       <c r="D80">
-        <v>193664.06912590901</v>
+        <v>202161.78926448099</v>
       </c>
       <c r="E80">
         <v>72.984095043383107</v>
@@ -6315,13 +6333,13 @@
         <v>20</v>
       </c>
       <c r="I80">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J80">
         <v>62.606092987060499</v>
       </c>
       <c r="K80">
-        <v>53.429127550195801</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -6332,10 +6350,10 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>97.074469684531607</v>
+        <v>99.810348876504506</v>
       </c>
       <c r="D81">
-        <v>192915.108755469</v>
+        <v>199962.35366530801</v>
       </c>
       <c r="E81">
         <v>72.984095043383107</v>
@@ -6350,10 +6368,10 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>47.9126415612755</v>
+        <v>53.105762078906501</v>
       </c>
       <c r="J81">
-        <v>62.606092987031303</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -6364,13 +6382,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>105.846068298771</v>
+        <v>107.01904131569999</v>
       </c>
       <c r="D82">
-        <v>187961.977104536</v>
+        <v>184890.555321041</v>
       </c>
       <c r="E82">
         <v>72.984095043383107</v>
@@ -6379,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>39.435662432931998</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H82">
-        <v>26.021420656638199</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>53.227459287145102</v>
+        <v>53.705926782883203</v>
       </c>
       <c r="J82">
         <v>62.606092987060499</v>
@@ -6402,10 +6420,10 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>98.693942294218402</v>
+        <v>105.112608554006</v>
       </c>
       <c r="D83">
-        <v>188582.52987253101</v>
+        <v>195036.18044898001</v>
       </c>
       <c r="E83">
         <v>72.984095043383107</v>
@@ -6414,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>48.825175575826499</v>
+        <v>50.153924750589198</v>
       </c>
       <c r="J83">
         <v>62.502828805904002</v>
@@ -6437,10 +6455,10 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D84">
-        <v>191845.80353310501</v>
+        <v>198765.111301197</v>
       </c>
       <c r="E84">
         <v>72.984095043383107</v>
@@ -6449,13 +6467,13 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H84">
         <v>20</v>
       </c>
       <c r="I84">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J84">
         <v>62.606092987060499</v>
@@ -6472,10 +6490,10 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>107.09828380725401</v>
+        <v>114.717507985962</v>
       </c>
       <c r="D85">
-        <v>194365.216424157</v>
+        <v>203476.80073193301</v>
       </c>
       <c r="E85">
         <v>72.984095043383107</v>
@@ -6484,13 +6502,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H85">
-        <v>20.0126362835667</v>
+        <v>20</v>
       </c>
       <c r="I85">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J85">
         <v>59.806109183825697</v>
@@ -6504,13 +6522,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>124.933411598441</v>
+        <v>128.47038241796801</v>
       </c>
       <c r="D86">
-        <v>244562.18350170099</v>
+        <v>239099.80588732101</v>
       </c>
       <c r="E86">
         <v>72.984095043383107</v>
@@ -6519,19 +6537,19 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>39.625494643324103</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H86">
-        <v>24.599380999415501</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>53.227459287145102</v>
+        <v>56.134600631463996</v>
       </c>
       <c r="J86">
         <v>62.606092987060499</v>
       </c>
       <c r="K86">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -6539,13 +6557,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>117.50046276697699</v>
+        <v>104.210097176194</v>
       </c>
       <c r="D87">
-        <v>238306.07912472801</v>
+        <v>196867.88751118601</v>
       </c>
       <c r="E87">
         <v>72.984095043383107</v>
@@ -6554,19 +6572,19 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>56.1788209390714</v>
+        <v>65.272415269727404</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>47.214007953291301</v>
+        <v>48.8992200987799</v>
       </c>
       <c r="J87">
         <v>62.606092987060499</v>
       </c>
       <c r="K87">
-        <v>53.429127550193797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6577,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>125.90092127107999</v>
+        <v>135.993737424323</v>
       </c>
       <c r="D88">
-        <v>246017.014458397</v>
+        <v>243613.70039277099</v>
       </c>
       <c r="E88">
         <v>72.984095043383107</v>
@@ -6589,19 +6607,19 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>39.205253446106397</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H88">
-        <v>27.299563124538199</v>
+        <v>20</v>
       </c>
       <c r="I88">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J88">
         <v>62.606092987060499</v>
       </c>
       <c r="K88">
-        <v>53.429127550195901</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6609,13 +6627,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>114.03161736135699</v>
+        <v>98.646120018451498</v>
       </c>
       <c r="D89">
-        <v>233014.32199798099</v>
+        <v>204478.55444099399</v>
       </c>
       <c r="E89">
         <v>72.984095043383107</v>
@@ -6624,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>56.1788209390714</v>
+        <v>58.386199192166401</v>
       </c>
       <c r="H89">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>46.397430159987799</v>
@@ -6647,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>125.616917168911</v>
+        <v>135.94628163733401</v>
       </c>
       <c r="D90">
-        <v>227630.30752025</v>
+        <v>238934.369119827</v>
       </c>
       <c r="E90">
         <v>72.984095043383107</v>
@@ -6659,19 +6677,19 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>39.516911471946301</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H90">
-        <v>26.229818896568698</v>
+        <v>20</v>
       </c>
       <c r="I90">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J90">
         <v>62.606092987060499</v>
       </c>
       <c r="K90">
-        <v>53.429127550195901</v>
+        <v>54.883570321989303</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -6679,13 +6697,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>124.693455620791</v>
+        <v>107.13330952538401</v>
       </c>
       <c r="D91">
-        <v>246092.67431440699</v>
+        <v>202060.00921320499</v>
       </c>
       <c r="E91">
         <v>72.984095043383107</v>
@@ -6694,19 +6712,19 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>38.8566822022457</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>26.174551723180301</v>
+        <v>20</v>
       </c>
       <c r="I91">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J91">
         <v>62.606092987060499</v>
       </c>
       <c r="K91">
-        <v>52.156002152353302</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -6717,10 +6735,10 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>104.868808875458</v>
+        <v>112.06459818467999</v>
       </c>
       <c r="D92">
-        <v>195340.47096492801</v>
+        <v>206762.70155482099</v>
       </c>
       <c r="E92">
         <v>72.984095043383107</v>
@@ -6729,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>38.599047186604501</v>
+        <v>59.800723075369604</v>
       </c>
       <c r="H92">
-        <v>25.150031365259601</v>
+        <v>20</v>
       </c>
       <c r="I92">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J92">
         <v>62.606092987060499</v>
@@ -6749,13 +6767,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>104.913953133517</v>
+        <v>106.61812968979901</v>
       </c>
       <c r="D93">
-        <v>190212.168286314</v>
+        <v>195664.22220293901</v>
       </c>
       <c r="E93">
         <v>72.984095043383107</v>
@@ -6764,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>38.586808276174501</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H93">
-        <v>25.321467882345399</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>53.227459287145102</v>
+        <v>52.992516781565399</v>
       </c>
       <c r="J93">
         <v>62.539537077230399</v>
@@ -6784,13 +6802,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>107.977851014796</v>
+        <v>90.090639239666999</v>
       </c>
       <c r="D94">
-        <v>193849.11233943299</v>
+        <v>149697.391083806</v>
       </c>
       <c r="E94">
         <v>72.984095043383107</v>
@@ -6799,16 +6817,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>56.1788209390714</v>
+        <v>64.189862190299394</v>
       </c>
       <c r="H94">
         <v>20</v>
       </c>
       <c r="I94">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J94">
-        <v>62.058607239825797</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -6819,13 +6837,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>104.793972445824</v>
+        <v>100.049953147125</v>
       </c>
       <c r="D95">
-        <v>195510.01957757599</v>
+        <v>195452.74126655</v>
       </c>
       <c r="E95">
         <v>72.984095043383107</v>
@@ -6834,13 +6852,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>37.814115631988898</v>
+        <v>53.769655242802799</v>
       </c>
       <c r="H95">
-        <v>26.1442312037032</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>53.227459287145102</v>
+        <v>53.806037310267598</v>
       </c>
       <c r="J95">
         <v>62.606092987060499</v>
@@ -6857,10 +6875,10 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>112.854287904587</v>
+        <v>119.127646809092</v>
       </c>
       <c r="D96">
-        <v>220494.52241107801</v>
+        <v>228774.01357570101</v>
       </c>
       <c r="E96">
         <v>72.984095043383107</v>
@@ -6869,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H96">
         <v>40</v>
@@ -6881,7 +6899,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K96">
-        <v>53.429127550195901</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6889,13 +6907,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>123.70153296745001</v>
+        <v>98.473808788013997</v>
       </c>
       <c r="D97">
-        <v>246848.21454632599</v>
+        <v>198789.31143741601</v>
       </c>
       <c r="E97">
         <v>72.984095043383107</v>
@@ -6904,19 +6922,19 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>39.090265663510799</v>
+        <v>52.768969221189799</v>
       </c>
       <c r="H97">
-        <v>24.075623722352901</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>53.227459287145102</v>
+        <v>51.837814335059498</v>
       </c>
       <c r="J97">
         <v>62.606092987060499</v>
       </c>
       <c r="K97">
-        <v>51.653273545685998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6927,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>105.61222794117499</v>
+        <v>110.512783834454</v>
       </c>
       <c r="D98">
-        <v>187203.49315563499</v>
+        <v>201966.09873889101</v>
       </c>
       <c r="E98">
         <v>72.984095043383107</v>
@@ -6939,13 +6957,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>39.490054127334901</v>
+        <v>56.936961096174599</v>
       </c>
       <c r="H98">
-        <v>25.438238867611702</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J98">
         <v>62.606092987060499</v>
@@ -6959,13 +6977,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>116.09721696376801</v>
+        <v>102.04038322305399</v>
       </c>
       <c r="D99">
-        <v>234897.35526171001</v>
+        <v>201272.149230323</v>
       </c>
       <c r="E99">
         <v>72.984095043383107</v>
@@ -6974,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>56.1788209390714</v>
+        <v>60.7114618804016</v>
       </c>
       <c r="H99">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>50.303523161199998</v>
@@ -6997,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>108.416572540586</v>
+        <v>109.94909602128</v>
       </c>
       <c r="D100">
-        <v>195454.341817148</v>
+        <v>199244.93473797501</v>
       </c>
       <c r="E100">
         <v>72.984095043383107</v>
@@ -7012,10 +7030,10 @@
         <v>55.896715703889903</v>
       </c>
       <c r="H100">
-        <v>20.809811112512001</v>
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J100">
         <v>62.606092987060499</v>
@@ -7029,13 +7047,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>105.26027161639</v>
+        <v>86.957732823589595</v>
       </c>
       <c r="D101">
-        <v>193224.35196320701</v>
+        <v>143728.22935038299</v>
       </c>
       <c r="E101">
         <v>72.984095043383107</v>
@@ -7047,16 +7065,16 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>21.275948731220701</v>
+        <v>20</v>
       </c>
       <c r="I101">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J101">
         <v>62.606092987060499</v>
       </c>
       <c r="K101">
-        <v>53.429127550195801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -7064,13 +7082,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>91.361848793655994</v>
+        <v>115.549873049857</v>
       </c>
       <c r="D102">
-        <v>135956.50822478</v>
+        <v>191520.36856998701</v>
       </c>
       <c r="E102">
         <v>72.984095043383107</v>
@@ -7082,13 +7100,13 @@
         <v>65.710737519697702</v>
       </c>
       <c r="H102">
-        <v>24.7533685534945</v>
+        <v>22.601799403424302</v>
       </c>
       <c r="I102">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>58.847368779941299</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -7102,10 +7120,10 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>106.241031774205</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D103">
-        <v>195012.065352148</v>
+        <v>203325.54762498601</v>
       </c>
       <c r="E103">
         <v>72.984095043383107</v>
@@ -7114,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>39.9598532875453</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H103">
-        <v>26.0997499623927</v>
+        <v>20</v>
       </c>
       <c r="I103">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J103">
         <v>62.606092987060499</v>
@@ -7137,10 +7155,10 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>92.615137893783597</v>
+        <v>103.945994044957</v>
       </c>
       <c r="D104">
-        <v>193537.93398189</v>
+        <v>198573.33988765199</v>
       </c>
       <c r="E104">
         <v>72.984095043383107</v>
@@ -7149,16 +7167,16 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H104">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>52.729898968366498</v>
+        <v>50</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>59.740733689324699</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -7169,13 +7187,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>122.92902236037099</v>
+        <v>113.129081199749</v>
       </c>
       <c r="D105">
-        <v>248581.77356166</v>
+        <v>205040.144187814</v>
       </c>
       <c r="E105">
         <v>72.984095043383107</v>
@@ -7184,19 +7202,19 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>39.536677788906097</v>
+        <v>61.4983395060109</v>
       </c>
       <c r="H105">
-        <v>26.532247610856</v>
+        <v>20</v>
       </c>
       <c r="I105">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J105">
         <v>62.606092987060499</v>
       </c>
       <c r="K105">
-        <v>43.411297397758297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -7204,13 +7222,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>125.711108259361</v>
+        <v>98.187345692814503</v>
       </c>
       <c r="D106">
-        <v>237926.97221787501</v>
+        <v>188735.38280076499</v>
       </c>
       <c r="E106">
         <v>72.984095043383107</v>
@@ -7219,19 +7237,19 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>40.236522336815803</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>25.649672987238901</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>53.227459287145102</v>
+        <v>53.4263789161472</v>
       </c>
       <c r="J106">
         <v>62.606092987060499</v>
       </c>
       <c r="K106">
-        <v>53.429127550195901</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -7239,13 +7257,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>127.811478987434</v>
+        <v>110.43345548462599</v>
       </c>
       <c r="D107">
-        <v>245904.949877493</v>
+        <v>197168.723809894</v>
       </c>
       <c r="E107">
         <v>72.984095043383107</v>
@@ -7254,19 +7272,19 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>56.1788209390714</v>
+        <v>56.790566321518398</v>
       </c>
       <c r="H107">
         <v>20</v>
       </c>
       <c r="I107">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J107">
         <v>62.606092987060499</v>
       </c>
       <c r="K107">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -7277,10 +7295,10 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>123.894224816242</v>
+        <v>133.97062671304499</v>
       </c>
       <c r="D108">
-        <v>232083.628494484</v>
+        <v>247384.03159745299</v>
       </c>
       <c r="E108">
         <v>72.984095043383107</v>
@@ -7289,19 +7307,19 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>37.244474583632702</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H108">
-        <v>25.8677166131063</v>
+        <v>20</v>
       </c>
       <c r="I108">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J108">
         <v>62.606092987060499</v>
       </c>
       <c r="K108">
-        <v>53.429127550195901</v>
+        <v>48.938651387624503</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -7309,13 +7327,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>127.811478987434</v>
+        <v>110.57484742704</v>
       </c>
       <c r="D109">
-        <v>245960.52716254999</v>
+        <v>202024.56883983899</v>
       </c>
       <c r="E109">
         <v>72.984095043383107</v>
@@ -7324,19 +7342,19 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>56.1788209390714</v>
+        <v>57.051495000770501</v>
       </c>
       <c r="H109">
         <v>20</v>
       </c>
       <c r="I109">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J109">
         <v>62.606092987060499</v>
       </c>
       <c r="K109">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -7347,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>116.286299383159</v>
+        <v>125.596442992203</v>
       </c>
       <c r="D110">
-        <v>241197.78237883901</v>
+        <v>245076.819013097</v>
       </c>
       <c r="E110">
         <v>72.984095043383107</v>
@@ -7359,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>50.663479534832398</v>
@@ -7371,7 +7389,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7379,13 +7397,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>105.96595831509001</v>
+        <v>106.783080540488</v>
       </c>
       <c r="D111">
-        <v>189871.40731803901</v>
+        <v>190663.769628026</v>
       </c>
       <c r="E111">
         <v>72.984095043383107</v>
@@ -7394,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>39.930678262057597</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H111">
-        <v>25.5508397722399</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>53.227459287145102</v>
+        <v>53.256728040673003</v>
       </c>
       <c r="J111">
         <v>62.606092987060499</v>
@@ -7417,10 +7435,10 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>104.881515932279</v>
+        <v>113.290285160661</v>
       </c>
       <c r="D112">
-        <v>191019.416893783</v>
+        <v>207353.77653068001</v>
       </c>
       <c r="E112">
         <v>72.984095043383107</v>
@@ -7429,13 +7447,13 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>38.919851873892298</v>
+        <v>61.750862809613203</v>
       </c>
       <c r="H112">
-        <v>24.705229641759701</v>
+        <v>20</v>
       </c>
       <c r="I112">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J112">
         <v>62.606092987060499</v>
@@ -7449,13 +7467,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>105.07234540049799</v>
+        <v>124.36497207307799</v>
       </c>
       <c r="D113">
-        <v>197841.46936364699</v>
+        <v>248740.30822434899</v>
       </c>
       <c r="E113">
         <v>72.984095043383107</v>
@@ -7473,10 +7491,10 @@
         <v>50</v>
       </c>
       <c r="J113">
-        <v>62.606092987031303</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>52.499490587315798</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -7484,13 +7502,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>105.72881021515499</v>
+        <v>86.957732823589595</v>
       </c>
       <c r="D114">
-        <v>197389.26555021401</v>
+        <v>145568.47067474699</v>
       </c>
       <c r="E114">
         <v>72.984095043383107</v>
@@ -7499,13 +7517,13 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>49.037624414615699</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>22.194097936542299</v>
+        <v>20</v>
       </c>
       <c r="I114">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J114">
         <v>62.606092987060499</v>
@@ -7522,10 +7540,10 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>92.492092082124401</v>
+        <v>104.983021743536</v>
       </c>
       <c r="D115">
-        <v>176374.15853544601</v>
+        <v>198489.79950811699</v>
       </c>
       <c r="E115">
         <v>72.984095043383107</v>
@@ -7534,16 +7552,16 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H115">
-        <v>39.999999999999098</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>52.495656544889002</v>
+        <v>50</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>62.378859833075701</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -7554,13 +7572,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>98.590727307373797</v>
+        <v>80.566483107952294</v>
       </c>
       <c r="D116">
-        <v>195681.30149949199</v>
+        <v>147713.81266686201</v>
       </c>
       <c r="E116">
         <v>72.984095043383107</v>
@@ -7569,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>56.1788209390714</v>
+        <v>64.072536802361796</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -7578,7 +7596,7 @@
         <v>52.468255796208403</v>
       </c>
       <c r="J116">
-        <v>57.360567340914002</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -7589,13 +7607,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>118.974563197789</v>
+        <v>105.212546924961</v>
       </c>
       <c r="D117">
-        <v>236672.81455339899</v>
+        <v>192079.343039</v>
       </c>
       <c r="E117">
         <v>72.984095043383107</v>
@@ -7604,19 +7622,19 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>49.9999999999797</v>
+        <v>50.266901769511797</v>
       </c>
       <c r="J117">
         <v>62.606092987060499</v>
       </c>
       <c r="K117">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -7624,13 +7642,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>124.136605987096</v>
+        <v>101.835756064986</v>
       </c>
       <c r="D118">
-        <v>237429.24767115599</v>
+        <v>192409.075514303</v>
       </c>
       <c r="E118">
         <v>72.984095043383107</v>
@@ -7639,19 +7657,19 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>38.700188675596202</v>
+        <v>59.295058690319799</v>
       </c>
       <c r="H118">
-        <v>24.246786321740402</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>53.227459287145102</v>
+        <v>51.505793998050699</v>
       </c>
       <c r="J118">
         <v>62.606092987060499</v>
       </c>
       <c r="K118">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -7659,13 +7677,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>105.252363731527</v>
+        <v>77.133981873950006</v>
       </c>
       <c r="D119">
-        <v>196529.62582928999</v>
+        <v>144758.38750048299</v>
       </c>
       <c r="E119">
         <v>72.984095043383107</v>
@@ -7674,16 +7692,16 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>39.157668004781399</v>
+        <v>57.600539684467101</v>
       </c>
       <c r="H119">
-        <v>25.627159158428</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>53.227459287145102</v>
+        <v>53.3582615708698</v>
       </c>
       <c r="J119">
-        <v>62.045641918737097</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -7694,13 +7712,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>127.811478987434</v>
+        <v>113.276404011536</v>
       </c>
       <c r="D120">
-        <v>239501.43046060001</v>
+        <v>197509.89862870399</v>
       </c>
       <c r="E120">
         <v>72.984095043383107</v>
@@ -7709,19 +7727,19 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>56.1788209390714</v>
+        <v>61.729118222104901</v>
       </c>
       <c r="H120">
         <v>20</v>
       </c>
       <c r="I120">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J120">
         <v>62.606092987060499</v>
       </c>
       <c r="K120">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -7732,10 +7750,10 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>106.164391824091</v>
+        <v>112.139277984801</v>
       </c>
       <c r="D121">
-        <v>186748.598243838</v>
+        <v>195678.12174616699</v>
       </c>
       <c r="E121">
         <v>72.984095043383107</v>
@@ -7744,13 +7762,13 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>39.286249642738298</v>
+        <v>59.938539285259097</v>
       </c>
       <c r="H121">
-        <v>26.9262232071986</v>
+        <v>20</v>
       </c>
       <c r="I121">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J121">
         <v>62.606092987060499</v>
@@ -7767,10 +7785,10 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>100.185435648514</v>
+        <v>102.97792474474799</v>
       </c>
       <c r="D122">
-        <v>195243.08922192699</v>
+        <v>199719.56777644399</v>
       </c>
       <c r="E122">
         <v>72.984095043383107</v>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>56.1788209390714</v>
+        <v>61.130797116796401</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -7799,13 +7817,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>104.83789419946</v>
+        <v>86.957732823589595</v>
       </c>
       <c r="D123">
-        <v>195204.80820768999</v>
+        <v>142548.25013100501</v>
       </c>
       <c r="E123">
         <v>72.984095043383107</v>
@@ -7814,13 +7832,13 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>49.950459486266297</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>20</v>
       </c>
       <c r="I123">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J123">
         <v>62.606092987060499</v>
@@ -7837,10 +7855,10 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>93.2358724932608</v>
+        <v>95.731020081037798</v>
       </c>
       <c r="D124">
-        <v>171584.10946554801</v>
+        <v>197585.70332645701</v>
       </c>
       <c r="E124">
         <v>72.984095043383107</v>
@@ -7849,13 +7867,13 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>56.1788209390714</v>
+        <v>60.515347142003797</v>
       </c>
       <c r="H124">
-        <v>40.000000000000703</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>38.584514821172</v>
       </c>
       <c r="J124">
         <v>62.606092987060499</v>
@@ -7872,10 +7890,10 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>127.811478987434</v>
+        <v>135.9801846094</v>
       </c>
       <c r="D125">
-        <v>243414.72309634101</v>
+        <v>247561.05485379399</v>
       </c>
       <c r="E125">
         <v>72.984095043383107</v>
@@ -7884,19 +7902,19 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H125">
         <v>20</v>
       </c>
       <c r="I125">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J125">
         <v>62.606092987060499</v>
       </c>
       <c r="K125">
-        <v>53.429127550195901</v>
+        <v>54.980312327571802</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -7904,13 +7922,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>114.715418161259</v>
+        <v>103.849985068508</v>
       </c>
       <c r="D126">
-        <v>232446.81348016299</v>
+        <v>202069.25986922099</v>
       </c>
       <c r="E126">
         <v>72.984095043383107</v>
@@ -7919,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H126">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>47.6897868747864</v>
@@ -7942,10 +7960,10 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>104.810143329176</v>
+        <v>112.558310090161</v>
       </c>
       <c r="D127">
-        <v>201152.57262105899</v>
+        <v>207458.894920116</v>
       </c>
       <c r="E127">
         <v>72.984095043383107</v>
@@ -7954,16 +7972,16 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>39.067671420731998</v>
+        <v>60.6042361267939</v>
       </c>
       <c r="H127">
-        <v>24.3341118033794</v>
+        <v>20</v>
       </c>
       <c r="I127">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J127">
-        <v>62.606092987058901</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -7974,13 +7992,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>124.742602955366</v>
+        <v>110.200493458439</v>
       </c>
       <c r="D128">
-        <v>236888.47262418899</v>
+        <v>204431.27047535099</v>
       </c>
       <c r="E128">
         <v>72.984095043383107</v>
@@ -7989,19 +8007,19 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>38.546016769976902</v>
+        <v>56.3606516264433</v>
       </c>
       <c r="H128">
-        <v>25.777551555245701</v>
+        <v>20</v>
       </c>
       <c r="I128">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J128">
         <v>62.606092987060499</v>
       </c>
       <c r="K128">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -8009,13 +8027,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>124.024236130866</v>
+        <v>126.36552579281199</v>
       </c>
       <c r="D129">
-        <v>235450.15201006099</v>
+        <v>238626.58113902001</v>
       </c>
       <c r="E129">
         <v>72.984095043383107</v>
@@ -8024,19 +8042,19 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>38.256292113606499</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H129">
-        <v>24.6583131371133</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>53.227459287145102</v>
+        <v>52.127583161283397</v>
       </c>
       <c r="J129">
         <v>62.606092987060499</v>
       </c>
       <c r="K129">
-        <v>53.429127550195901</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -8044,13 +8062,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>103.041353002178</v>
+        <v>106.23546109002901</v>
       </c>
       <c r="D130">
-        <v>206472.27490244599</v>
+        <v>200647.033059793</v>
       </c>
       <c r="E130">
         <v>72.984095043383107</v>
@@ -8059,13 +8077,13 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>39.501089011457303</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H130">
-        <v>23.770871052860802</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>53.227459287145102</v>
+        <v>55.6475113267457</v>
       </c>
       <c r="J130">
         <v>58.018165083522597</v>
@@ -8079,13 +8097,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>124.418121628996</v>
+        <v>125.93018250214701</v>
       </c>
       <c r="D131">
-        <v>247527.628604536</v>
+        <v>249381.26660161099</v>
       </c>
       <c r="E131">
         <v>72.984095043383107</v>
@@ -8094,19 +8112,19 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>40.875894584981097</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H131">
-        <v>23.754557233244501</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>53.227459287145102</v>
+        <v>51.298819743209997</v>
       </c>
       <c r="J131">
         <v>62.606092987060499</v>
       </c>
       <c r="K131">
-        <v>51.995437538809199</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -8114,13 +8132,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>104.916017771372</v>
+        <v>81.827780713922706</v>
       </c>
       <c r="D132">
-        <v>195453.88511083199</v>
+        <v>144758.38750055901</v>
       </c>
       <c r="E132">
         <v>72.984095043383107</v>
@@ -8129,16 +8147,16 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>38.192257829966699</v>
+        <v>65.080329174085605</v>
       </c>
       <c r="H132">
-        <v>25.8608888787738</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>53.227459287145102</v>
+        <v>53.644648833688699</v>
       </c>
       <c r="J132">
-        <v>62.593568219355802</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -8149,13 +8167,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>105.44152687042499</v>
+        <v>86.957732823589595</v>
       </c>
       <c r="D133">
-        <v>195035.02246822001</v>
+        <v>143658.38565639401</v>
       </c>
       <c r="E133">
         <v>72.984095043383107</v>
@@ -8167,16 +8185,16 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>21.665937728288</v>
+        <v>20</v>
       </c>
       <c r="I133">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J133">
         <v>62.606092987060499</v>
       </c>
       <c r="K133">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -8187,10 +8205,10 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>125.29306362238199</v>
+        <v>135.46936767148699</v>
       </c>
       <c r="D134">
-        <v>243437.69323840801</v>
+        <v>248394.85061310901</v>
       </c>
       <c r="E134">
         <v>72.984095043383107</v>
@@ -8199,19 +8217,19 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>38.909326244151401</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H134">
-        <v>26.427224923092201</v>
+        <v>20</v>
       </c>
       <c r="I134">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J134">
         <v>62.606092987060499</v>
       </c>
       <c r="K134">
-        <v>53.429127550195901</v>
+        <v>53.522698081729402</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -8222,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>127.811478987434</v>
+        <v>135.993737424323</v>
       </c>
       <c r="D135">
-        <v>234054.85505566699</v>
+        <v>244234.177485461</v>
       </c>
       <c r="E135">
         <v>72.984095043383107</v>
@@ -8234,19 +8252,19 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H135">
         <v>20</v>
       </c>
       <c r="I135">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J135">
         <v>62.606092987060499</v>
       </c>
       <c r="K135">
-        <v>53.429127550195901</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -8257,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>125.001381692721</v>
+        <v>134.76261572627101</v>
       </c>
       <c r="D136">
-        <v>230918.22750100901</v>
+        <v>245836.00593996601</v>
       </c>
       <c r="E136">
         <v>72.984095043383107</v>
@@ -8269,19 +8287,19 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>39.381224130947302</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H136">
-        <v>25.105129085965299</v>
+        <v>20</v>
       </c>
       <c r="I136">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J136">
         <v>62.606092987060499</v>
       </c>
       <c r="K136">
-        <v>53.429127550195901</v>
+        <v>51.505984016148503</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -8289,13 +8307,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>104.195998710495</v>
+        <v>77.064501396030394</v>
       </c>
       <c r="D137">
-        <v>191435.04715198299</v>
+        <v>144758.38750048299</v>
       </c>
       <c r="E137">
         <v>72.984095043383107</v>
@@ -8304,16 +8322,16 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>38.480153951764599</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>26.8538202750109</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>53.227459287145102</v>
+        <v>54.256558491724199</v>
       </c>
       <c r="J137">
-        <v>59.0869348938323</v>
+        <v>59.086934893835</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -8327,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D138">
-        <v>174744.64162474699</v>
+        <v>180681.81943962001</v>
       </c>
       <c r="E138">
         <v>72.984095043383107</v>
@@ -8339,13 +8357,13 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H138">
         <v>20</v>
       </c>
       <c r="I138">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J138">
         <v>62.606092987060499</v>
@@ -8359,13 +8377,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>115.08409281447</v>
+        <v>99.194088404170898</v>
       </c>
       <c r="D139">
-        <v>238474.03388301199</v>
+        <v>203251.188586598</v>
       </c>
       <c r="E139">
         <v>72.984095043383107</v>
@@ -8374,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>56.1788209390714</v>
+        <v>57.455167617657501</v>
       </c>
       <c r="H139">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>48.386567521607702</v>
@@ -8397,10 +8415,10 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>109.064342191766</v>
+        <v>115.442885659067</v>
       </c>
       <c r="D140">
-        <v>183761.77575741601</v>
+        <v>196876.799872139</v>
       </c>
       <c r="E140">
         <v>72.984095043383107</v>
@@ -8409,13 +8427,13 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>56.1788209390714</v>
+        <v>65.122875420968398</v>
       </c>
       <c r="H140">
-        <v>21.874643994708901</v>
+        <v>20</v>
       </c>
       <c r="I140">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J140">
         <v>62.606092987060499</v>
@@ -8432,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>126.120850146523</v>
+        <v>134.23107390811501</v>
       </c>
       <c r="D141">
-        <v>243515.92864075</v>
+        <v>245666.99560680901</v>
       </c>
       <c r="E141">
         <v>72.984095043383107</v>
@@ -8444,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>39.651595120584503</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H141">
-        <v>27.115861830509999</v>
+        <v>20</v>
       </c>
       <c r="I141">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J141">
         <v>62.606092987060499</v>
       </c>
       <c r="K141">
-        <v>53.429127550195901</v>
+        <v>49.984840929347598</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -8467,10 +8485,10 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>107.465762179468</v>
+        <v>109.37466171185299</v>
       </c>
       <c r="D142">
-        <v>195340.61842928</v>
+        <v>201580.69437105901</v>
       </c>
       <c r="E142">
         <v>72.984095043383107</v>
@@ -8485,7 +8503,7 @@
         <v>20</v>
       </c>
       <c r="I142">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J142">
         <v>62.606092987060499</v>
@@ -8502,10 +8520,10 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <v>99.356147786473898</v>
+        <v>102.469640052098</v>
       </c>
       <c r="D143">
-        <v>194699.74810612001</v>
+        <v>198309.255027729</v>
       </c>
       <c r="E143">
         <v>72.984095043383107</v>
@@ -8514,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>56.1788209390714</v>
+        <v>61.633643202854103</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8537,10 +8555,10 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>108.193063576108</v>
+        <v>114.72357488019701</v>
       </c>
       <c r="D144">
-        <v>191704.26746661801</v>
+        <v>198041.847165104</v>
       </c>
       <c r="E144">
         <v>72.984095043383107</v>
@@ -8549,13 +8567,13 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>56.1788209390714</v>
+        <v>63.996087138781803</v>
       </c>
       <c r="H144">
         <v>20</v>
       </c>
       <c r="I144">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J144">
         <v>62.606092987060499</v>
@@ -8569,13 +8587,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>125.268897481553</v>
+        <v>126.37571112193299</v>
       </c>
       <c r="D145">
-        <v>237634.48831178699</v>
+        <v>236284.23647897999</v>
       </c>
       <c r="E145">
         <v>72.984095043383107</v>
@@ -8584,19 +8602,19 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>40.191550532856098</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H145">
-        <v>24.7118684679747</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>53.227459287145102</v>
+        <v>52.146972981588497</v>
       </c>
       <c r="J145">
-        <v>62.606092987060599</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K145">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -8604,13 +8622,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>127.811478987434</v>
+        <v>106.22585028750299</v>
       </c>
       <c r="D146">
-        <v>239655.51586534499</v>
+        <v>196325.91540648899</v>
       </c>
       <c r="E146">
         <v>72.984095043383107</v>
@@ -8619,19 +8637,19 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>56.1788209390714</v>
+        <v>63.6097175026092</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>53.227459287145102</v>
+        <v>54.749235993740797</v>
       </c>
       <c r="J146">
         <v>62.606092987060499</v>
       </c>
       <c r="K146">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -8642,10 +8660,10 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>105.08205815625401</v>
+        <v>110.810888089236</v>
       </c>
       <c r="D147">
-        <v>186250.19156971</v>
+        <v>202027.68465978399</v>
       </c>
       <c r="E147">
         <v>72.984095043383107</v>
@@ -8654,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>38.798511666343998</v>
+        <v>57.487091097586799</v>
       </c>
       <c r="H147">
-        <v>25.315298175853702</v>
+        <v>20</v>
       </c>
       <c r="I147">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J147">
         <v>62.606092987060499</v>
@@ -8677,10 +8695,10 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>105.771961189333</v>
+        <v>109.61660755287799</v>
       </c>
       <c r="D148">
-        <v>192269.67316092999</v>
+        <v>200108.37281623401</v>
       </c>
       <c r="E148">
         <v>72.984095043383107</v>
@@ -8689,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>40.8860756848728</v>
+        <v>55.283132104671402</v>
       </c>
       <c r="H148">
-        <v>24.762335502210899</v>
+        <v>20</v>
       </c>
       <c r="I148">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J148">
         <v>62.606092987060499</v>
@@ -8709,13 +8727,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>116.62280917375401</v>
+        <v>103.50958638224</v>
       </c>
       <c r="D149">
-        <v>236025.896088821</v>
+        <v>190764.24598130101</v>
       </c>
       <c r="E149">
         <v>72.984095043383107</v>
@@ -8724,19 +8742,19 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>45.555277055885</v>
+        <v>47.046446697398103</v>
       </c>
       <c r="J149">
         <v>62.606092987060499</v>
       </c>
       <c r="K149">
-        <v>53.429127550193797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -8747,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>128.44317384974801</v>
+        <v>135.993737424323</v>
       </c>
       <c r="D150">
-        <v>226456.376471953</v>
+        <v>233700.52949695999</v>
       </c>
       <c r="E150">
         <v>72.984095043383107</v>
@@ -8759,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H150">
-        <v>21.359155336585701</v>
+        <v>20</v>
       </c>
       <c r="I150">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J150">
         <v>62.606092987060499</v>
       </c>
       <c r="K150">
-        <v>53.429127550195901</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -8782,10 +8800,10 @@
         <v>2</v>
       </c>
       <c r="C151">
-        <v>90.960776590071305</v>
+        <v>103.901943720191</v>
       </c>
       <c r="D151">
-        <v>183899.45853469701</v>
+        <v>197213.606037055</v>
       </c>
       <c r="E151">
         <v>72.984095043383107</v>
@@ -8794,16 +8812,16 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H151">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>49.583517695454198</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>60.1892673946302</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -8814,13 +8832,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>123.790204590333</v>
+        <v>109.898870329256</v>
       </c>
       <c r="D152">
-        <v>248179.75796660699</v>
+        <v>206583.57316716699</v>
       </c>
       <c r="E152">
         <v>72.984095043383107</v>
@@ -8829,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>39.0276472057812</v>
+        <v>55.804027794942002</v>
       </c>
       <c r="H152">
-        <v>25.078491505626801</v>
+        <v>20</v>
       </c>
       <c r="I152">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J152">
-        <v>62.606092987058901</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K152">
-        <v>50.698496603670101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -8849,13 +8867,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>104.715612133032</v>
+        <v>104.78879025249699</v>
       </c>
       <c r="D153">
-        <v>186742.15150212299</v>
+        <v>198279.32024246699</v>
       </c>
       <c r="E153">
         <v>72.984095043383107</v>
@@ -8864,13 +8882,13 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>40.449613368326403</v>
+        <v>62.3129031671684</v>
       </c>
       <c r="H153">
-        <v>22.622034962950998</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>53.227459287145102</v>
+        <v>53.589483732977797</v>
       </c>
       <c r="J153">
         <v>62.606092987060499</v>
@@ -8884,13 +8902,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>125.490457867171</v>
+        <v>104.003353429139</v>
       </c>
       <c r="D154">
-        <v>244283.87740981701</v>
+        <v>196580.13785120801</v>
       </c>
       <c r="E154">
         <v>72.984095043383107</v>
@@ -8899,19 +8917,19 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>40.7922652355305</v>
+        <v>61.807186039147297</v>
       </c>
       <c r="H154">
-        <v>25.006158031211498</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>53.227459287145102</v>
+        <v>52.708830056510998</v>
       </c>
       <c r="J154">
         <v>62.606092987060499</v>
       </c>
       <c r="K154">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -8922,10 +8940,10 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>94.479041435258495</v>
+        <v>98.736114582821202</v>
       </c>
       <c r="D155">
-        <v>183891.95503928399</v>
+        <v>195999.67488514801</v>
       </c>
       <c r="E155">
         <v>72.984095043383107</v>
@@ -8934,13 +8952,13 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>55.602289712826703</v>
       </c>
       <c r="H155">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>53.208674987807299</v>
+        <v>49.418605223483098</v>
       </c>
       <c r="J155">
         <v>62.606092987060499</v>
@@ -8954,13 +8972,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C156">
-        <v>123.12646873724501</v>
+        <v>99.279428492399603</v>
       </c>
       <c r="D156">
-        <v>248211.63448641601</v>
+        <v>197798.13509749199</v>
       </c>
       <c r="E156">
         <v>72.984095043383107</v>
@@ -8969,19 +8987,19 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>39.197037017030503</v>
+        <v>53.968203714858099</v>
       </c>
       <c r="H156">
-        <v>24.2896571184721</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>53.227459287145102</v>
+        <v>52.134370829430097</v>
       </c>
       <c r="J156">
         <v>62.606092987060499</v>
       </c>
       <c r="K156">
-        <v>49.324400619935297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -8989,13 +9007,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157">
-        <v>104.375216148904</v>
+        <v>74.302648706917395</v>
       </c>
       <c r="D157">
-        <v>191232.61408028301</v>
+        <v>144758.38750048299</v>
       </c>
       <c r="E157">
         <v>72.984095043383107</v>
@@ -9004,16 +9022,16 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>39.0958264131989</v>
+        <v>53.035285407804402</v>
       </c>
       <c r="H157">
-        <v>24.927381463402799</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>53.227459287145102</v>
+        <v>52.677660398324903</v>
       </c>
       <c r="J157">
-        <v>60.749227735771299</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -9027,10 +9045,10 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>108.056298456862</v>
+        <v>109.96519798924599</v>
       </c>
       <c r="D158">
-        <v>196192.46702685099</v>
+        <v>201271.65144286599</v>
       </c>
       <c r="E158">
         <v>72.984095043383107</v>
@@ -9039,13 +9057,13 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>55.9264307298182</v>
+        <v>55.9264307298183</v>
       </c>
       <c r="H158">
         <v>20</v>
       </c>
       <c r="I158">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J158">
         <v>62.606092987060499</v>
@@ -9062,10 +9080,10 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>123.261216451526</v>
+        <v>134.85368097845199</v>
       </c>
       <c r="D159">
-        <v>240360.27493394201</v>
+        <v>241616.06558265301</v>
       </c>
       <c r="E159">
         <v>72.984095043383107</v>
@@ -9074,19 +9092,19 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>38.1817372326718</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H159">
-        <v>23.911638801091001</v>
+        <v>20</v>
       </c>
       <c r="I159">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J159">
-        <v>62.606092987058901</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K159">
-        <v>52.387628504780601</v>
+        <v>51.765838376934603</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -9097,10 +9115,10 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>109.486456312172</v>
+        <v>114.94310721018699</v>
       </c>
       <c r="D160">
-        <v>189945.911873367</v>
+        <v>193969.09018623299</v>
       </c>
       <c r="E160">
         <v>72.984095043383107</v>
@@ -9109,13 +9127,13 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>56.1788209390714</v>
+        <v>63.3978131915053</v>
       </c>
       <c r="H160">
-        <v>22.7828651844404</v>
+        <v>21.294089134838401</v>
       </c>
       <c r="I160">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J160">
         <v>62.606092987060499</v>
@@ -9129,13 +9147,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161">
-        <v>104.04837453628301</v>
+        <v>99.406807823280303</v>
       </c>
       <c r="D161">
-        <v>193309.43606080901</v>
+        <v>195416.54861597301</v>
       </c>
       <c r="E161">
         <v>72.984095043383107</v>
@@ -9144,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="G161">
-        <v>38.066983329686501</v>
+        <v>54.703083082812597</v>
       </c>
       <c r="H161">
-        <v>24.1678455378857</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>53.227459287145102</v>
+        <v>51.618778478220001</v>
       </c>
       <c r="J161">
         <v>62.606092987060499</v>
@@ -9164,13 +9182,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>121.15411536037401</v>
+        <v>106.690450504303</v>
       </c>
       <c r="D162">
-        <v>246962.74765788901</v>
+        <v>196525.181639491</v>
       </c>
       <c r="E162">
         <v>72.984095043383107</v>
@@ -9179,19 +9197,19 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>37.728452200446398</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H162">
-        <v>25.373340021925301</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>53.227459287145102</v>
+        <v>53.080388156608102</v>
       </c>
       <c r="J162">
         <v>62.606092987060499</v>
       </c>
       <c r="K162">
-        <v>43.413650130868703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -9199,13 +9217,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>106.137006018356</v>
+        <v>90.1755491888064</v>
       </c>
       <c r="D163">
-        <v>201756.943448993</v>
+        <v>152190.28753047599</v>
       </c>
       <c r="E163">
         <v>72.984095043383107</v>
@@ -9214,16 +9232,16 @@
         <v>0</v>
       </c>
       <c r="G163">
-        <v>41.394606672238602</v>
+        <v>64.322872202858406</v>
       </c>
       <c r="H163">
-        <v>25.796348544857398</v>
+        <v>20</v>
       </c>
       <c r="I163">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J163">
-        <v>62.129598600331001</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -9234,13 +9252,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164">
-        <v>116.912091759124</v>
+        <v>106.046658666368</v>
       </c>
       <c r="D164">
-        <v>225536.18869099999</v>
+        <v>199460.23543805801</v>
       </c>
       <c r="E164">
         <v>72.984095043383107</v>
@@ -9249,16 +9267,16 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H164">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>51.854801049669803</v>
       </c>
       <c r="J164">
-        <v>62.606092987060499</v>
+        <v>62.606092987047802</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -9272,10 +9290,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>116.567618991158</v>
+        <v>123.891795218479</v>
       </c>
       <c r="D165">
-        <v>231149.83258612</v>
+        <v>248453.75509054901</v>
       </c>
       <c r="E165">
         <v>72.984095043383107</v>
@@ -9284,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H165">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>51.199027928239801</v>
@@ -9296,7 +9314,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>49.087852314572103</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -9304,13 +9322,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>125.30045642408</v>
+        <v>106.98135809446499</v>
       </c>
       <c r="D166">
-        <v>237485.40884503501</v>
+        <v>193120.638413648</v>
       </c>
       <c r="E166">
         <v>72.984095043383107</v>
@@ -9319,19 +9337,19 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>39.288794567940499</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H166">
-        <v>25.884651211951201</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>53.227459287145102</v>
+        <v>53.634189200371203</v>
       </c>
       <c r="J166">
         <v>62.606092987060499</v>
       </c>
       <c r="K166">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -9342,10 +9360,10 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>105.134583527573</v>
+        <v>107.13330952538401</v>
       </c>
       <c r="D167">
-        <v>195331.257168735</v>
+        <v>200835.12334867299</v>
       </c>
       <c r="E167">
         <v>72.984095043383107</v>
@@ -9357,16 +9375,16 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>21.0055181058481</v>
+        <v>20</v>
       </c>
       <c r="I167">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J167">
         <v>62.606092987060499</v>
       </c>
       <c r="K167">
-        <v>53.429127550195801</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -9374,13 +9392,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168">
-        <v>102.362646860051</v>
+        <v>106.122605955984</v>
       </c>
       <c r="D168">
-        <v>204763.63653213301</v>
+        <v>201983.26274539399</v>
       </c>
       <c r="E168">
         <v>72.984095043383107</v>
@@ -9389,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>38.810693295751001</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H168">
-        <v>24.9270131888408</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>53.227459287145102</v>
+        <v>56.848642222563598</v>
       </c>
       <c r="J168">
         <v>56.125988978970597</v>
@@ -9409,13 +9427,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>127.893801204472</v>
+        <v>111.286116604046</v>
       </c>
       <c r="D169">
-        <v>238739.93041968101</v>
+        <v>194999.77739671801</v>
       </c>
       <c r="E169">
         <v>72.984095043383107</v>
@@ -9424,19 +9442,19 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>56.1788209390714</v>
+        <v>58.364091205198498</v>
       </c>
       <c r="H169">
-        <v>20.177124569601201</v>
+        <v>20</v>
       </c>
       <c r="I169">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J169">
         <v>62.606092987060499</v>
       </c>
       <c r="K169">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -9444,13 +9462,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>127.811478987434</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D170">
-        <v>244213.55128000499</v>
+        <v>201083.66334054299</v>
       </c>
       <c r="E170">
         <v>72.984095043383107</v>
@@ -9459,19 +9477,19 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H170">
         <v>20</v>
       </c>
       <c r="I170">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J170">
         <v>62.606092987060499</v>
       </c>
       <c r="K170">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -9482,10 +9500,10 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>110.190930619163</v>
+        <v>116.407982844625</v>
       </c>
       <c r="D171">
-        <v>182656.53884666401</v>
+        <v>185624.35942268599</v>
       </c>
       <c r="E171">
         <v>72.984095043383107</v>
@@ -9494,13 +9512,13 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H171">
-        <v>24.298612851481099</v>
+        <v>21.269061904267001</v>
       </c>
       <c r="I171">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J171">
         <v>62.606092987060499</v>
@@ -9517,10 +9535,10 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>107.308437048637</v>
+        <v>114.809112148724</v>
       </c>
       <c r="D172">
-        <v>189184.95215431199</v>
+        <v>195796.64319368399</v>
       </c>
       <c r="E172">
         <v>72.984095043383107</v>
@@ -9529,16 +9547,16 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H172">
-        <v>20.2677066070226</v>
+        <v>20</v>
       </c>
       <c r="I172">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J172">
-        <v>60.039143785494801</v>
+        <v>60.039143785494701</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -9552,10 +9570,10 @@
         <v>2</v>
       </c>
       <c r="C173">
-        <v>97.661481204061502</v>
+        <v>104.069865852403</v>
       </c>
       <c r="D173">
-        <v>175888.58953182399</v>
+        <v>187049.93174917699</v>
       </c>
       <c r="E173">
         <v>72.984095043383107</v>
@@ -9564,13 +9582,13 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>46.797146570406497</v>
+        <v>48.1053529395856</v>
       </c>
       <c r="J173">
         <v>62.606092987060499</v>
@@ -9584,13 +9602,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174">
-        <v>104.840939492723</v>
+        <v>107.32727227373</v>
       </c>
       <c r="D174">
-        <v>202180.42049089901</v>
+        <v>193783.84678617699</v>
       </c>
       <c r="E174">
         <v>72.984095043383107</v>
@@ -9599,13 +9617,13 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>37.652585850506</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H174">
-        <v>26.4830159713187</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>53.227459287145102</v>
+        <v>54.292706337801</v>
       </c>
       <c r="J174">
         <v>62.606092987060499</v>
@@ -9619,13 +9637,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C175">
-        <v>90.681091325578393</v>
+        <v>74.099460618791696</v>
       </c>
       <c r="D175">
-        <v>188791.06928677199</v>
+        <v>146357.98121948799</v>
       </c>
       <c r="E175">
         <v>72.984095043383107</v>
@@ -9637,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>39.999999999999098</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>46.007539275220097</v>
@@ -9657,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>115.89359209377</v>
+        <v>125.203735702814</v>
       </c>
       <c r="D176">
-        <v>238731.42138678499</v>
+        <v>235507.166148952</v>
       </c>
       <c r="E176">
         <v>72.984095043383107</v>
@@ -9669,10 +9687,10 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H176">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>49.916489436554897</v>
@@ -9681,7 +9699,7 @@
         <v>62.606092987060499</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -9689,13 +9707,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177">
-        <v>105.312332505409</v>
+        <v>107.918808229253</v>
       </c>
       <c r="D177">
-        <v>191464.79777210299</v>
+        <v>196982.83576494601</v>
       </c>
       <c r="E177">
         <v>72.984095043383107</v>
@@ -9704,13 +9722,13 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>41.094950712381298</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H177">
-        <v>23.709968522984202</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>53.227459287145102</v>
+        <v>55.418813873912903</v>
       </c>
       <c r="J177">
         <v>62.606092987060499</v>
@@ -9724,13 +9742,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178">
-        <v>117.544632640768</v>
+        <v>104.391299596533</v>
       </c>
       <c r="D178">
-        <v>227535.03401469599</v>
+        <v>203002.084462839</v>
       </c>
       <c r="E178">
         <v>72.984095043383107</v>
@@ -9739,10 +9757,10 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>56.1788209390714</v>
+        <v>62.1267805821998</v>
       </c>
       <c r="H178">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>53.0589697009014</v>
@@ -9759,13 +9777,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>125.357322655006</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D179">
-        <v>248107.92931710801</v>
+        <v>200672.450202045</v>
       </c>
       <c r="E179">
         <v>72.984095043383107</v>
@@ -9774,19 +9792,19 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>38.768852853189003</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H179">
-        <v>26.772225537891799</v>
+        <v>20</v>
       </c>
       <c r="I179">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J179">
         <v>62.606092987060499</v>
       </c>
       <c r="K179">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -9794,13 +9812,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180">
-        <v>103.827122400371</v>
+        <v>106.47943322009</v>
       </c>
       <c r="D180">
-        <v>188476.53337352001</v>
+        <v>201178.10197996601</v>
       </c>
       <c r="E180">
         <v>72.984095043383107</v>
@@ -9809,13 +9827,13 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>39.192766923570197</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H180">
-        <v>23.391387575525499</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>53.227459287145102</v>
+        <v>53.878841594734801</v>
       </c>
       <c r="J180">
         <v>61.002300222040397</v>
@@ -9832,10 +9850,10 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>111.58488740082301</v>
+        <v>113.165021854212</v>
       </c>
       <c r="D181">
-        <v>191563.24032270801</v>
+        <v>194158.58656050701</v>
       </c>
       <c r="E181">
         <v>72.984095043383107</v>
@@ -9847,10 +9865,10 @@
         <v>61.554639938998299</v>
       </c>
       <c r="H181">
-        <v>20.707371293099499</v>
+        <v>20</v>
       </c>
       <c r="I181">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J181">
         <v>62.606092987060499</v>
@@ -9864,13 +9882,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>114.03289211183601</v>
+        <v>100.97647842428</v>
       </c>
       <c r="D182">
-        <v>228379.97178769801</v>
+        <v>190948.778553771</v>
       </c>
       <c r="E182">
         <v>72.984095043383107</v>
@@ -9879,13 +9897,13 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H182">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>46.399839388437599</v>
+        <v>42.258971925142497</v>
       </c>
       <c r="J182">
         <v>62.606092987060499</v>
@@ -9899,13 +9917,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>124.32260876706199</v>
+        <v>86.957732823589595</v>
       </c>
       <c r="D183">
-        <v>246128.42693906301</v>
+        <v>143063.188499462</v>
       </c>
       <c r="E183">
         <v>72.984095043383107</v>
@@ -9914,19 +9932,19 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>38.810317133417499</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>24.484909249353901</v>
+        <v>20</v>
       </c>
       <c r="I183">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J183">
         <v>62.606092987060499</v>
       </c>
       <c r="K183">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -9937,10 +9955,10 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>128.42945595443899</v>
+        <v>135.993737424323</v>
       </c>
       <c r="D184">
-        <v>239709.53326052899</v>
+        <v>247701.954203309</v>
       </c>
       <c r="E184">
         <v>72.984095043383107</v>
@@ -9949,19 +9967,19 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H184">
-        <v>21.329639898471399</v>
+        <v>20</v>
       </c>
       <c r="I184">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J184">
         <v>62.606092987060499</v>
       </c>
       <c r="K184">
-        <v>53.429127550195901</v>
+        <v>55.018985234904903</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -9972,10 +9990,10 @@
         <v>2</v>
       </c>
       <c r="C185">
-        <v>98.732131246130706</v>
+        <v>98.868356151776695</v>
       </c>
       <c r="D185">
-        <v>197109.511117802</v>
+        <v>197595.26432292399</v>
       </c>
       <c r="E185">
         <v>72.984095043383107</v>
@@ -9990,10 +10008,10 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>50</v>
+        <v>50.259331476656101</v>
       </c>
       <c r="J185">
-        <v>62.606092987031303</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -10004,13 +10022,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>105.823864955508</v>
+        <v>106.322954552509</v>
       </c>
       <c r="D186">
-        <v>195075.21795423501</v>
+        <v>191305.587584664</v>
       </c>
       <c r="E186">
         <v>72.984095043383107</v>
@@ -10019,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="G186">
-        <v>41.766423061445799</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H186">
-        <v>24.6066752000687</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>53.227459287145102</v>
+        <v>52.380785779200799</v>
       </c>
       <c r="J186">
         <v>62.606092987060499</v>
@@ -10042,10 +10060,10 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>108.20877797416701</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D187">
-        <v>187955.689049123</v>
+        <v>198654.76378667899</v>
       </c>
       <c r="E187">
         <v>72.984095043383107</v>
@@ -10054,13 +10072,13 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H187">
-        <v>20.033811115552801</v>
+        <v>20</v>
       </c>
       <c r="I187">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J187">
         <v>62.606092987060499</v>
@@ -10077,10 +10095,10 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>104.761974461259</v>
+        <v>107.13330952538401</v>
       </c>
       <c r="D188">
-        <v>193041.15270277101</v>
+        <v>198318.808723077</v>
       </c>
       <c r="E188">
         <v>72.984095043383107</v>
@@ -10089,19 +10107,19 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>49.412546204967903</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>20</v>
       </c>
       <c r="I188">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J188">
         <v>62.606092987060499</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>55.018985234904797</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -10112,10 +10130,10 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>117.378753798886</v>
+        <v>122.36678121960099</v>
       </c>
       <c r="D189">
-        <v>244981.07108289</v>
+        <v>243971.82735448901</v>
       </c>
       <c r="E189">
         <v>72.984095043383107</v>
@@ -10124,19 +10142,19 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>47.462284815443503</v>
+        <v>44.554756638812002</v>
       </c>
       <c r="J189">
         <v>62.606092987060499</v>
       </c>
       <c r="K189">
-        <v>52.706978655470799</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -10147,10 +10165,10 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D190">
-        <v>189665.099401568</v>
+        <v>197119.17084804701</v>
       </c>
       <c r="E190">
         <v>72.984095043383107</v>
@@ -10159,13 +10177,13 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H190">
         <v>20</v>
       </c>
       <c r="I190">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J190">
         <v>62.606092987060499</v>
@@ -10179,13 +10197,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191">
-        <v>117.917800770292</v>
+        <v>100.059373993732</v>
       </c>
       <c r="D191">
-        <v>240174.98306157501</v>
+        <v>196512.247522144</v>
       </c>
       <c r="E191">
         <v>72.984095043383107</v>
@@ -10194,19 +10212,19 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>56.1788209390714</v>
+        <v>57.621309372795402</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>48.002760424774401</v>
+        <v>49.851772403346303</v>
       </c>
       <c r="J191">
         <v>62.606092987060499</v>
       </c>
       <c r="K191">
-        <v>53.429127550193797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -10217,10 +10235,10 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D192">
-        <v>185444.56168511501</v>
+        <v>189382.69014232201</v>
       </c>
       <c r="E192">
         <v>72.984095043383107</v>
@@ -10229,13 +10247,13 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H192">
         <v>20</v>
       </c>
       <c r="I192">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J192">
         <v>62.606092987060499</v>
@@ -10249,13 +10267,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>124.137783813954</v>
+        <v>126.827987015796</v>
       </c>
       <c r="D193">
-        <v>237502.19157689399</v>
+        <v>242379.73066212301</v>
       </c>
       <c r="E193">
         <v>72.984095043383107</v>
@@ -10264,19 +10282,19 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>37.957100418214502</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H193">
-        <v>25.3429559109107</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>53.227459287145102</v>
+        <v>53.007971011760198</v>
       </c>
       <c r="J193">
         <v>62.606092987060499</v>
       </c>
       <c r="K193">
-        <v>53.429127550195901</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -10284,13 +10302,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>104.802097091291</v>
+        <v>107.551865156069</v>
       </c>
       <c r="D194">
-        <v>194570.524743585</v>
+        <v>199158.28669538899</v>
       </c>
       <c r="E194">
         <v>72.984095043383107</v>
@@ -10299,13 +10317,13 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <v>39.696837345406202</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H194">
-        <v>23.390828596062399</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>53.227459287145102</v>
+        <v>54.720264012018198</v>
       </c>
       <c r="J194">
         <v>62.606092987060499</v>
@@ -10319,13 +10337,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>113.890291948909</v>
+        <v>99.960568872967599</v>
       </c>
       <c r="D195">
-        <v>244270.42202549099</v>
+        <v>193162.003490667</v>
       </c>
       <c r="E195">
         <v>72.984095043383107</v>
@@ -10334,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="G195">
-        <v>54.602736762930597</v>
+        <v>62.751880983652697</v>
       </c>
       <c r="H195">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>48.142718389506904</v>
+        <v>43.908800787555002</v>
       </c>
       <c r="J195">
-        <v>62.0700117395847</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -10354,13 +10372,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>127.811478987434</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D196">
-        <v>242264.95994397599</v>
+        <v>200790.022325445</v>
       </c>
       <c r="E196">
         <v>72.984095043383107</v>
@@ -10369,19 +10387,19 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H196">
-        <v>20</v>
+        <v>19.999999999999901</v>
       </c>
       <c r="I196">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J196">
         <v>62.606092987060499</v>
       </c>
       <c r="K196">
-        <v>53.429127550195901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -10392,10 +10410,10 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>108.193063576108</v>
+        <v>115.81816072252801</v>
       </c>
       <c r="D197">
-        <v>189728.254396117</v>
+        <v>196588.685257876</v>
       </c>
       <c r="E197">
         <v>72.984095043383107</v>
@@ -10404,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="G197">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H197">
         <v>20</v>
       </c>
       <c r="I197">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J197">
         <v>62.606092987060499</v>
@@ -10427,10 +10445,10 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>113.877498380567</v>
+        <v>121.099555946303</v>
       </c>
       <c r="D198">
-        <v>230507.177011077</v>
+        <v>231890.10986991401</v>
       </c>
       <c r="E198">
         <v>72.984095043383107</v>
@@ -10439,19 +10457,19 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H198">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>46.106151325960901</v>
+        <v>42.1597505327302</v>
       </c>
       <c r="J198">
         <v>62.606092987060499</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>55.018985234903397</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -10462,10 +10480,10 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>105.485710178075</v>
+        <v>114.015529681845</v>
       </c>
       <c r="D199">
-        <v>196387.71035855901</v>
+        <v>201656.579166387</v>
       </c>
       <c r="E199">
         <v>72.984095043383107</v>
@@ -10474,16 +10492,16 @@
         <v>0</v>
       </c>
       <c r="G199">
-        <v>39.054488204661702</v>
+        <v>62.886946199708397</v>
       </c>
       <c r="H199">
-        <v>25.807064466567901</v>
+        <v>19.999999999999901</v>
       </c>
       <c r="I199">
-        <v>53.227459287145102</v>
+        <v>56.861433061731503</v>
       </c>
       <c r="J199">
-        <v>62.606092987058901</v>
+        <v>62.606092987060499</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -10494,13 +10512,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200">
-        <v>116.984873815201</v>
+        <v>100.107993551121</v>
       </c>
       <c r="D200">
-        <v>234183.677538349</v>
+        <v>197417.585580852</v>
       </c>
       <c r="E200">
         <v>72.984095043383107</v>
@@ -10509,13 +10527,13 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>56.1788209390714</v>
+        <v>57.5662983230146</v>
       </c>
       <c r="H200">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>51.993356315966501</v>
+        <v>50</v>
       </c>
       <c r="J200">
         <v>62.606092987060499</v>
@@ -10532,10 +10550,10 @@
         <v>2</v>
       </c>
       <c r="C201">
-        <v>100.164499936117</v>
+        <v>105.880697550153</v>
       </c>
       <c r="D201">
-        <v>182481.78774701801</v>
+        <v>191571.117133447</v>
       </c>
       <c r="E201">
         <v>72.984095043383107</v>
@@ -10544,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <v>56.1788209390714</v>
+        <v>65.710737519697702</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -31722,7 +31740,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31756,23 +31774,23 @@
       </c>
       <c r="B2">
         <f>SUM(EEV!B:B)</f>
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="C2">
         <f>AVERAGE(EEV!C:C)</f>
-        <v>111.95761426068039</v>
+        <v>109.20354038562397</v>
       </c>
       <c r="D2">
         <f>AVERAGE(EEV!D:D)</f>
-        <v>212121.08553597695</v>
+        <v>200527.99384859839</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S(EEV!C:C)</f>
-        <v>11.302758808882267</v>
+        <v>14.128589339950022</v>
       </c>
       <c r="F2">
         <f>_xlfn.STDEV.S(EEV!D:D)</f>
-        <v>25706.363558388468</v>
+        <v>27127.55420142354</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/results/robust_recourse_iterative/zero_SOS2.xlsx
+++ b/results/robust_recourse_iterative/zero_SOS2.xlsx
@@ -31740,7 +31740,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/robust_recourse_iterative/zero_SOS2.xlsx
+++ b/results/robust_recourse_iterative/zero_SOS2.xlsx
@@ -2330,11 +2330,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$C$2:$O$2</c:f>
+              <c:f>Results!$C$18:$L$18</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>eev</c:v>
+                  <c:v>EEV</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -2355,22 +2355,13 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5923,182 +5914,6 @@
             <v>300</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Sum infeasible</v>
-          </cell>
-          <cell r="C4">
-            <v>56</v>
-          </cell>
-          <cell r="D4">
-            <v>60</v>
-          </cell>
-          <cell r="E4">
-            <v>12</v>
-          </cell>
-          <cell r="F4">
-            <v>12</v>
-          </cell>
-          <cell r="G4">
-            <v>12</v>
-          </cell>
-          <cell r="H4">
-            <v>11</v>
-          </cell>
-          <cell r="I4">
-            <v>8</v>
-          </cell>
-          <cell r="J4">
-            <v>2</v>
-          </cell>
-          <cell r="K4">
-            <v>2</v>
-          </cell>
-          <cell r="L4">
-            <v>2</v>
-          </cell>
-          <cell r="M4">
-            <v>2</v>
-          </cell>
-          <cell r="N4">
-            <v>2</v>
-          </cell>
-          <cell r="O4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Average oil</v>
-          </cell>
-          <cell r="C5">
-            <v>125.17733832544771</v>
-          </cell>
-          <cell r="D5">
-            <v>126.95664944550073</v>
-          </cell>
-          <cell r="E5">
-            <v>130.7481157132292</v>
-          </cell>
-          <cell r="F5">
-            <v>130.47485440542985</v>
-          </cell>
-          <cell r="G5">
-            <v>130.47485442007726</v>
-          </cell>
-          <cell r="H5">
-            <v>131.03548736417343</v>
-          </cell>
-          <cell r="I5">
-            <v>129.82594504995993</v>
-          </cell>
-          <cell r="J5">
-            <v>127.79216123960252</v>
-          </cell>
-          <cell r="K5">
-            <v>127.79216123625059</v>
-          </cell>
-          <cell r="L5">
-            <v>127.52654627951694</v>
-          </cell>
-          <cell r="M5">
-            <v>128.53454080382934</v>
-          </cell>
-          <cell r="N5">
-            <v>128.53454080724592</v>
-          </cell>
-          <cell r="O5">
-            <v>128.53454081454083</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Average oil feasible</v>
-          </cell>
-          <cell r="C7">
-            <v>127.53316551618416</v>
-          </cell>
-          <cell r="D7">
-            <v>135.49472233396267</v>
-          </cell>
-          <cell r="E7">
-            <v>132.33755391422719</v>
-          </cell>
-          <cell r="F7">
-            <v>132.03036201320631</v>
-          </cell>
-          <cell r="G7">
-            <v>132.03036202878869</v>
-          </cell>
-          <cell r="H7">
-            <v>132.61614002535853</v>
-          </cell>
-          <cell r="I7">
-            <v>130.98029602532131</v>
-          </cell>
-          <cell r="J7">
-            <v>128.0124876674742</v>
-          </cell>
-          <cell r="K7">
-            <v>128.01248766408841</v>
-          </cell>
-          <cell r="L7">
-            <v>127.74418972799383</v>
-          </cell>
-          <cell r="M7">
-            <v>128.72584654526617</v>
-          </cell>
-          <cell r="N7">
-            <v>128.72584654871724</v>
-          </cell>
-          <cell r="O7">
-            <v>128.72584655608586</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Std oil</v>
-          </cell>
-          <cell r="C8">
-            <v>5.8267412667064784</v>
-          </cell>
-          <cell r="D8">
-            <v>13.100501813974121</v>
-          </cell>
-          <cell r="E8">
-            <v>6.5216421977612296</v>
-          </cell>
-          <cell r="F8">
-            <v>6.4166216178203648</v>
-          </cell>
-          <cell r="G8">
-            <v>6.4166216175243314</v>
-          </cell>
-          <cell r="H8">
-            <v>6.5776540949989197</v>
-          </cell>
-          <cell r="I8">
-            <v>5.6693559552099719</v>
-          </cell>
-          <cell r="J8">
-            <v>2.4413041944698244</v>
-          </cell>
-          <cell r="K8">
-            <v>2.4413041940014137</v>
-          </cell>
-          <cell r="L8">
-            <v>2.5758666300526039</v>
-          </cell>
-          <cell r="M8">
-            <v>2.1788607811608549</v>
-          </cell>
-          <cell r="N8">
-            <v>2.1788607809378444</v>
-          </cell>
-          <cell r="O8">
-            <v>2.1788607825833703</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -34795,8 +34610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/robust_recourse_iterative/zero_SOS2.xlsx
+++ b/results/robust_recourse_iterative/zero_SOS2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="EEV" sheetId="19" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="200scen" sheetId="18" r:id="rId12"/>
     <sheet name="Results" sheetId="7" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_200iter_100scen_zero_sos2" localSheetId="9">'100scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_10scen_zero_sos2" localSheetId="2">'10scen'!$A$1:$K$201</definedName>
@@ -2031,7 +2028,7 @@
         <c:axId val="488392176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14"/>
+          <c:max val="15"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5845,101 +5842,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="200iter_eevscen_under_cap_sos2"/>
-      <sheetName val="200iter_5scen_under_cap_sos2"/>
-      <sheetName val="200iter_10scen_under_cap_sos2"/>
-      <sheetName val="200iter_15scen_under_cap_sos2"/>
-      <sheetName val="200iter_20scen_under_cap_sos2"/>
-      <sheetName val="200iter_30scen_under_cap_sos2"/>
-      <sheetName val="200iter_50scen_under_cap_sos2"/>
-      <sheetName val="200iter_75scen_under_cap_sos2"/>
-      <sheetName val="200iter_100scen_under_cap_sos2"/>
-      <sheetName val="200iter_150scen_under_cap_sos2"/>
-      <sheetName val="200iter_200scen_under_cap_sos2"/>
-      <sheetName val="200iter_250scen_under_cap_sos2"/>
-      <sheetName val="200iter_300scen_under_cap_sos2"/>
-      <sheetName val="200iter_400scen_under_cap_sos2"/>
-      <sheetName val="200iter_500scen_under_cap_sos2"/>
-      <sheetName val="200iter_600scen_under_cap_sos2"/>
-      <sheetName val="200iter_700scen_under_cap_sos2"/>
-      <sheetName val="200iter_800scen_under_cap_sos2"/>
-      <sheetName val="200iter_900scen_under_cap_sos2"/>
-      <sheetName val="200iter_1000scen_under_cap_sos2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>eev</v>
-          </cell>
-          <cell r="D2">
-            <v>5</v>
-          </cell>
-          <cell r="E2">
-            <v>10</v>
-          </cell>
-          <cell r="F2">
-            <v>15</v>
-          </cell>
-          <cell r="G2">
-            <v>20</v>
-          </cell>
-          <cell r="H2">
-            <v>30</v>
-          </cell>
-          <cell r="I2">
-            <v>50</v>
-          </cell>
-          <cell r="J2">
-            <v>75</v>
-          </cell>
-          <cell r="K2">
-            <v>100</v>
-          </cell>
-          <cell r="L2">
-            <v>150</v>
-          </cell>
-          <cell r="M2">
-            <v>200</v>
-          </cell>
-          <cell r="N2">
-            <v>250</v>
-          </cell>
-          <cell r="O2">
-            <v>300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_eevscen_zero_sos2_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -6254,7 +6156,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13343,7 +13245,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20431,7 +20333,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27519,7 +27421,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34611,7 +34513,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35267,7 +35169,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">INDIRECT(""&amp;C$17&amp;"!"&amp;$A24)</f>
         <v>14.128589339950022</v>
       </c>
       <c r="D24" s="1">
@@ -35370,7 +35272,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42458,7 +42360,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49546,7 +49448,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56634,7 +56536,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63722,7 +63624,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70810,7 +70712,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77898,7 +77800,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84986,7 +84888,7 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/robust_recourse_iterative/zero_SOS2.xlsx
+++ b/results/robust_recourse_iterative/zero_SOS2.xlsx
@@ -31740,7 +31740,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
